--- a/src/i18n/BSEX_多语言翻译.xlsx
+++ b/src/i18n/BSEX_多语言翻译.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="PC" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="IOS" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="安卓" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="后端" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16634" uniqueCount="13024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16788" uniqueCount="13115">
   <si>
     <t>key</t>
   </si>
@@ -14269,7 +14272,7 @@
     <t>lang_1061</t>
   </si>
   <si>
-    <t>预估强平价</t>
+    <t>买入/开多</t>
   </si>
   <si>
     <t>Liq.price</t>
@@ -38267,31 +38270,28 @@
     <t>home_8</t>
   </si>
   <si>
-    <t>新闻</t>
+    <t>合法合规</t>
   </si>
   <si>
     <t>home_9</t>
   </si>
   <si>
-    <t>苹果退出OpenAI本轮融资谈判</t>
+    <t>UBEX严格遵守法律和监管标准，为我们的用户提供安全的交易环境</t>
   </si>
   <si>
     <t>home_10</t>
   </si>
   <si>
-    <t>微软预计追加投资10亿美元,OpenAI 预计今年亏损约50亿美元</t>
-  </si>
-  <si>
     <t>home_11</t>
   </si>
   <si>
-    <t>收入增长170%,游戏区块链 Tabi 推出测试网 V2 'Yoake'</t>
+    <t>比特币</t>
   </si>
   <si>
     <t>home_12</t>
   </si>
   <si>
-    <t>UBEX早报（9月28日）</t>
+    <t>以太币</t>
   </si>
   <si>
     <t>home_13</t>
@@ -38351,36 +38351,33 @@
     <t>home_22</t>
   </si>
   <si>
-    <t>交易平台是供用户买卖加密货币的数字市场，用户可以在这些平台上买卖</t>
+    <t>$[CryptocCurrency]交易平台是供用户买卖加密货币的数字市场，用户可以在这些平台上买卖$[BTC]、$[ETH]和$[USDT]等币种。</t>
   </si>
   <si>
     <t>home_23</t>
   </si>
   <si>
-    <t>比特币</t>
+    <t>泰达币</t>
   </si>
   <si>
     <t>home_24</t>
   </si>
   <si>
-    <t>以太币</t>
-  </si>
-  <si>
     <t>home_25</t>
   </si>
   <si>
+    <t>永续合约</t>
+  </si>
+  <si>
     <t>home_26</t>
   </si>
   <si>
-    <t>泰达币</t>
+    <t>UBEX加密货币目录</t>
   </si>
   <si>
     <t>home_27</t>
   </si>
   <si>
-    <t>等币种。UBEX交易平台是全球交易量最大的加密货币交易平台。</t>
-  </si>
-  <si>
     <t>home_28</t>
   </si>
   <si>
@@ -38390,7 +38387,7 @@
     <t>home_29</t>
   </si>
   <si>
-    <t>作为全球领先的加密货币交易平台，UBEX目前为180多个国家/地区的1.5亿注册用户提供服务。UBEX手续费低廉，提供350多种可交易加密货币，是交易比特币、竞争币及其他虚拟资产的首选交易平台。</t>
+    <t>作为全球领先的加密货币交易平台，UBEX目前为80多个国家/地区的2000万+注册用户提供服务。UBEX手续费低廉，提供数十种优质可交易加密货币，是交易比特币、竞争币及其他虚拟资产的首选交易平台。</t>
   </si>
   <si>
     <t>home_30</t>
@@ -38402,61 +38399,25 @@
     <t>home_31</t>
   </si>
   <si>
-    <t>在</t>
+    <t>在$[spot]和$[contract]市场上交易数十种加密货币。</t>
   </si>
   <si>
     <t>home_32</t>
   </si>
   <si>
-    <t>市场上交易数百种加密货币。</t>
+    <t>$[contract]提供最高125倍杠杆放大仓位。</t>
   </si>
   <si>
     <t>home_33</t>
   </si>
   <si>
-    <t>通过</t>
+    <t>理财</t>
   </si>
   <si>
     <t>home_34</t>
   </si>
   <si>
-    <t>买卖加密货币。</t>
-  </si>
-  <si>
-    <t>home_35</t>
-  </si>
-  <si>
-    <t>理财赚取加密货币利息。</t>
-  </si>
-  <si>
-    <t>home_36</t>
-  </si>
-  <si>
-    <t>市场上交易与质押NFT及进行NFT借贷。</t>
-  </si>
-  <si>
-    <t>home_37</t>
-  </si>
-  <si>
-    <t>上购买或赚取新代币。</t>
-  </si>
-  <si>
-    <t>home_38</t>
-  </si>
-  <si>
-    <t>如何在UBEX购买比特币和其他加密货币？</t>
-  </si>
-  <si>
-    <t>home_39</t>
-  </si>
-  <si>
-    <t>用户可通过多种方式在UBEX买入加密货币。您可以使用信用卡/借记卡、现金余额或Apple Pay/Google Pay在UBEX上</t>
-  </si>
-  <si>
-    <t>home_40</t>
-  </si>
-  <si>
-    <t>。开始买币之前，请确保您已完成UBEX账户</t>
+    <t>稳定币</t>
   </si>
   <si>
     <t>home_41</t>
@@ -38468,25 +38429,13 @@
     <t>home_42</t>
   </si>
   <si>
-    <t>借助</t>
+    <t>借助$[Table_of_contents]，轻松追踪最新的加密货币价格、成交量、热门竞争币和市值。点击币种，即可了解该币种的历史价格、24小时成交量以及$[BTC]、$[ETH]和其它已支持币种的实时价格。</t>
   </si>
   <si>
     <t>home_43</t>
   </si>
   <si>
-    <t>UBEX加密货币目录</t>
-  </si>
-  <si>
-    <t>home_44</t>
-  </si>
-  <si>
-    <t>，轻松追踪最新的加密货币价格、成交量、热门竞争币和市值。点击币种，即可了解该币种的历史价格、24小时成交量以及</t>
-  </si>
-  <si>
-    <t>home_45</t>
-  </si>
-  <si>
-    <t>等币种的实时价格。</t>
+    <t>借助UBEX加密货币目录，轻松追踪最新的加密货币价格、成交量、热门竞争币和市值。点击币种，即可了解该币种的历史价格、24小时成交量以及比特币、以太币和其它已支持币种的实时价格。</t>
   </si>
   <si>
     <t>home_46</t>
@@ -38498,31 +38447,7 @@
     <t>home_47</t>
   </si>
   <si>
-    <t>您可以在UBEX</t>
-  </si>
-  <si>
-    <t>home_48</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>home_49</t>
-  </si>
-  <si>
-    <t>期权</t>
-  </si>
-  <si>
-    <t>home_50</t>
-  </si>
-  <si>
-    <t>市场上交易数百种加密货币。 要想</t>
-  </si>
-  <si>
-    <t>home_51</t>
-  </si>
-  <si>
-    <t>，用户需要注册UBEX账户、完成身份认证及购买/充值加密货币，然后即可开始交易。</t>
+    <t>您可以在UBEX$[Spot]与$[Contract]上交易加密货币。 要想$[StartTrade]，用户需要注册UBEX账户、完成身份认证及充值加密货币，然后即可开始交易。</t>
   </si>
   <si>
     <t>home_52</t>
@@ -38534,25 +38459,7 @@
     <t>home_53</t>
   </si>
   <si>
-    <t>UBEX理财</t>
-  </si>
-  <si>
-    <t>home_54</t>
-  </si>
-  <si>
-    <t>提供多种产品，可供用户从180多种加密货币中赚取收益。我们的平台提供包括</t>
-  </si>
-  <si>
-    <t>home_55</t>
-  </si>
-  <si>
-    <t>稳定币</t>
-  </si>
-  <si>
-    <t>home_56</t>
-  </si>
-  <si>
-    <t>在内的数十种数字资产。</t>
+    <t>UBEX$[financial_management]提供多种产品，可供用户从180多种加密货币中赚取收益。我们的平台提供包括$[BTC]、$[ETH]和$[USDT]在内的数十种数字资产。</t>
   </si>
   <si>
     <t>home_57</t>
@@ -38589,6 +38496,246 @@
   </si>
   <si>
     <t>24H成交量</t>
+  </si>
+  <si>
+    <t>footer_01</t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>footer_02</t>
+  </si>
+  <si>
+    <t>footer_03</t>
+  </si>
+  <si>
+    <t>AML 条款</t>
+  </si>
+  <si>
+    <t>footer_04</t>
+  </si>
+  <si>
+    <t>KYC 条款</t>
+  </si>
+  <si>
+    <t>footer_05</t>
+  </si>
+  <si>
+    <t>服务协议</t>
+  </si>
+  <si>
+    <t>footer_06</t>
+  </si>
+  <si>
+    <t>隐私协议</t>
+  </si>
+  <si>
+    <t>footer_07</t>
+  </si>
+  <si>
+    <t>footer_08</t>
+  </si>
+  <si>
+    <t>footer_09</t>
+  </si>
+  <si>
+    <t>footer_10</t>
+  </si>
+  <si>
+    <t>成为超级合伙人</t>
+  </si>
+  <si>
+    <t>footer_11</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>footer_12</t>
+  </si>
+  <si>
+    <t>footer_13</t>
+  </si>
+  <si>
+    <t>费率标准</t>
+  </si>
+  <si>
+    <t>market_001</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>market_002</t>
+  </si>
+  <si>
+    <t>24小时热门</t>
+  </si>
+  <si>
+    <t>market_003</t>
+  </si>
+  <si>
+    <t>market_004</t>
+  </si>
+  <si>
+    <t>market_005</t>
+  </si>
+  <si>
+    <t>USDT交易市场</t>
+  </si>
+  <si>
+    <t>market_006</t>
+  </si>
+  <si>
+    <t>market_007</t>
+  </si>
+  <si>
+    <t>暂无结果，前往市场添加</t>
+  </si>
+  <si>
+    <t>market_008</t>
+  </si>
+  <si>
+    <t>添加自选</t>
+  </si>
+  <si>
+    <t>market_009</t>
+  </si>
+  <si>
+    <t>market_010</t>
+  </si>
+  <si>
+    <t>about_us_001</t>
+  </si>
+  <si>
+    <t>UBEX 交易平台， 构建以用户为核心的交易新时代！</t>
+  </si>
+  <si>
+    <t>about_us_002</t>
+  </si>
+  <si>
+    <t>团队规模</t>
+  </si>
+  <si>
+    <t>about_us_003</t>
+  </si>
+  <si>
+    <t>技术支持/多语种客服</t>
+  </si>
+  <si>
+    <t>about_us_004</t>
+  </si>
+  <si>
+    <t>公司概括</t>
+  </si>
+  <si>
+    <t>about_us_005</t>
+  </si>
+  <si>
+    <t>UBEX的愿景是成为全球领先的加密货币交易平台，推动数字货币在金融和日常生活中的应用。平台将优化技术与安全性，助力用户财富增值，促进合规发展，并拓展区块链应用，实现数字经济的可持续增长。</t>
+  </si>
+  <si>
+    <t>about_us_006</t>
+  </si>
+  <si>
+    <t>平台合规</t>
+  </si>
+  <si>
+    <t>about_us_007</t>
+  </si>
+  <si>
+    <t>$[UBEX] 是全球领先的虚拟货币交易所之一，持有美国MSB牌照进行营运。</t>
+  </si>
+  <si>
+    <t>about_us_008</t>
+  </si>
+  <si>
+    <t>选择 UBEX 放心交易加密货币！</t>
+  </si>
+  <si>
+    <t>about_us_009</t>
+  </si>
+  <si>
+    <t>全球化运营情况</t>
+  </si>
+  <si>
+    <t>about_us_010</t>
+  </si>
+  <si>
+    <t>UBEX成立于2024年，总部位于阿联酋迪拜，并于美国，英国，新加坡，马来西亚，菲律宾，中国香港等地设有运营中心。由Unique Bit Global 集团经营，且已获得美国MSB，阿联酋ECL许可，菲律宾VASP，马来西亚 MBB牌照等，致力于提供安全、便捷和创新的加密货币交易平台，旨在为全球用户提供一个多功能、易用且高效的加密资产交易环境。</t>
+  </si>
+  <si>
+    <t>about_us_011</t>
+  </si>
+  <si>
+    <t>英国伯明翰</t>
+  </si>
+  <si>
+    <t>about_us_012</t>
+  </si>
+  <si>
+    <t>合规风控、法律事务</t>
+  </si>
+  <si>
+    <t>about_us_013</t>
+  </si>
+  <si>
+    <t>阿联酋迪拜</t>
+  </si>
+  <si>
+    <t>about_us_014</t>
+  </si>
+  <si>
+    <t>机构合作、流动性管理</t>
+  </si>
+  <si>
+    <t>about_us_015</t>
+  </si>
+  <si>
+    <t>中国香港</t>
+  </si>
+  <si>
+    <t>about_us_016</t>
+  </si>
+  <si>
+    <t>运营管理、市场拓展务</t>
+  </si>
+  <si>
+    <t>about_us_017</t>
+  </si>
+  <si>
+    <t>美国旧金山</t>
+  </si>
+  <si>
+    <t>about_us_018</t>
+  </si>
+  <si>
+    <t>核心技术研发、市场增长</t>
+  </si>
+  <si>
+    <t>about_us_019</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>about_us_020</t>
+  </si>
+  <si>
+    <t>战略合作、产品创新</t>
+  </si>
+  <si>
+    <t>about_us_021</t>
+  </si>
+  <si>
+    <t>马来西亚吉隆坡</t>
+  </si>
+  <si>
+    <t>about_us_022</t>
+  </si>
+  <si>
+    <t>客户支持、本地市场运营</t>
   </si>
   <si>
     <t>spot_1</t>
@@ -39084,22 +39231,151 @@
     <t>Android版本</t>
   </si>
   <si>
-    <t>市场</t>
-  </si>
-  <si>
-    <t>24小时热门</t>
-  </si>
-  <si>
     <t>操作成功</t>
   </si>
   <si>
-    <t>USDT交易市场</t>
-  </si>
-  <si>
     <t>分钟前</t>
   </si>
   <si>
     <t>小时前</t>
+  </si>
+  <si>
+    <t>尊敬的BSEX用户</t>
+  </si>
+  <si>
+    <t>UBEX网站包括移动端等UBEX的相关产品（以下简称UBEX）旨在不违反任何相关法律法规的前提下，为广大全球数字资产爱好者和投资者提供符合专业和国际标准的最佳交易平台。任何机构或者个人使用UBEX，均应遵守有关法律与本声明，不得使用UBEX从事任何非法交易活动，如洗钱、走私和商业贿赂。如发现任何账号涉及任何上述非法活动，本网站将冻结该账号并立即将该账号报告给管理当局。</t>
+  </si>
+  <si>
+    <t>管理当局依据相关调查证件要求BSEX配合其对任何指定用户开展调查的，或需对用户账号采取关闭、冻结或转账等措施的，UBEX将根据管理当局的要求协助其提供该账号用户的相关数据，或根据管理当局的要求执行相关操作。UBEX不以任何形式对因上述行为而产生的用户隐私披露、账号操作失败及损失承担任何责任。</t>
+  </si>
+  <si>
+    <t>如UBEX用户违反本声明的任何规定，从而违反相关法律的任何条款，UBEX作为服务提供者，有义务完善本平台的规则和服务。但是，本网站既没有违反任何法律法规的动机，也没有实际违反任何相关法律法规的行为，对用户的行为不承担任何连带责任。</t>
+  </si>
+  <si>
+    <t>主账户</t>
+  </si>
+  <si>
+    <t>合仓</t>
+  </si>
+  <si>
+    <t>分仓</t>
+  </si>
+  <si>
+    <t>杠杆调整</t>
+  </si>
+  <si>
+    <t>杠杆调整将同时影响当前仓位和挂单的杠杆</t>
+  </si>
+  <si>
+    <t>选择超过[10x]杠杆交易会增加强行平仓风险，请注意相关风险，更</t>
+  </si>
+  <si>
+    <t>参考这里。</t>
+  </si>
+  <si>
+    <t>多信息请</t>
+  </si>
+  <si>
+    <t>只看当前币种</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>预估盈利</t>
+  </si>
+  <si>
+    <t>预估盈损</t>
+  </si>
+  <si>
+    <t>有效杠杆</t>
+  </si>
+  <si>
+    <t>卖出/开空</t>
+  </si>
+  <si>
+    <t>预估强平价</t>
+  </si>
+  <si>
+    <t>合约价值</t>
+  </si>
+  <si>
+    <t>有效时间</t>
+  </si>
+  <si>
+    <t>一直有效至取消</t>
+  </si>
+  <si>
+    <t>预估强平价与当前标</t>
+  </si>
+  <si>
+    <t>记价的差距</t>
+  </si>
+  <si>
+    <t>市价止盈触发价</t>
+  </si>
+  <si>
+    <t>市价止损触发价</t>
+  </si>
+  <si>
+    <t>时，系统将以市价平掉整个仓位，</t>
+  </si>
+  <si>
+    <t>预估盈亏</t>
+  </si>
+  <si>
+    <t>只平当前</t>
+  </si>
+  <si>
+    <t>一键全平</t>
+  </si>
+  <si>
+    <t>只撤当前</t>
+  </si>
+  <si>
+    <t>一键撤单</t>
+  </si>
+  <si>
+    <t>自平</t>
+  </si>
+  <si>
+    <t>止盈平仓</t>
+  </si>
+  <si>
+    <t>止损平仓</t>
+  </si>
+  <si>
+    <t>数据为空</t>
+  </si>
+  <si>
+    <t>身份信息检查</t>
+  </si>
+  <si>
+    <t>请输入名字</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>选择日期</t>
+  </si>
+  <si>
+    <t>证件号</t>
+  </si>
+  <si>
+    <t>市价平仓</t>
+  </si>
+  <si>
+    <t>限价平仓</t>
+  </si>
+  <si>
+    <t>可平数量</t>
+  </si>
+  <si>
+    <t>预计盈亏</t>
+  </si>
+  <si>
+    <t>该功能仅限VIP1及以上用户使用</t>
   </si>
 </sst>
 </file>
@@ -39480,6 +39756,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -39680,7 +39968,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -95138,7 +95429,7 @@
         <v>12749</v>
       </c>
       <c r="B3278" s="2" t="s">
-        <v>12750</v>
+        <v>5377</v>
       </c>
       <c r="C3278" s="7"/>
       <c r="D3278" s="7"/>
@@ -95146,10 +95437,10 @@
     </row>
     <row r="3279">
       <c r="A3279" s="1" t="s">
+        <v>12750</v>
+      </c>
+      <c r="B3279" s="2" t="s">
         <v>12751</v>
-      </c>
-      <c r="B3279" s="2" t="s">
-        <v>12752</v>
       </c>
       <c r="C3279" s="7"/>
       <c r="D3279" s="7"/>
@@ -95157,10 +95448,10 @@
     </row>
     <row r="3280">
       <c r="A3280" s="1" t="s">
+        <v>12752</v>
+      </c>
+      <c r="B3280" s="2" t="s">
         <v>12753</v>
-      </c>
-      <c r="B3280" s="2" t="s">
-        <v>12754</v>
       </c>
       <c r="C3280" s="7"/>
       <c r="D3280" s="7"/>
@@ -95168,10 +95459,10 @@
     </row>
     <row r="3281">
       <c r="A3281" s="1" t="s">
+        <v>12754</v>
+      </c>
+      <c r="B3281" s="2" t="s">
         <v>12755</v>
-      </c>
-      <c r="B3281" s="2" t="s">
-        <v>12756</v>
       </c>
       <c r="C3281" s="7"/>
       <c r="D3281" s="7"/>
@@ -95179,10 +95470,10 @@
     </row>
     <row r="3282">
       <c r="A3282" s="1" t="s">
+        <v>12756</v>
+      </c>
+      <c r="B3282" s="2" t="s">
         <v>12757</v>
-      </c>
-      <c r="B3282" s="2" t="s">
-        <v>12758</v>
       </c>
       <c r="C3282" s="7"/>
       <c r="D3282" s="7"/>
@@ -95190,10 +95481,10 @@
     </row>
     <row r="3283">
       <c r="A3283" s="1" t="s">
+        <v>12758</v>
+      </c>
+      <c r="B3283" s="2" t="s">
         <v>12759</v>
-      </c>
-      <c r="B3283" s="2" t="s">
-        <v>12760</v>
       </c>
       <c r="C3283" s="7"/>
       <c r="D3283" s="7"/>
@@ -95201,10 +95492,10 @@
     </row>
     <row r="3284">
       <c r="A3284" s="1" t="s">
+        <v>12760</v>
+      </c>
+      <c r="B3284" s="2" t="s">
         <v>12761</v>
-      </c>
-      <c r="B3284" s="2" t="s">
-        <v>12762</v>
       </c>
       <c r="C3284" s="7"/>
       <c r="D3284" s="7"/>
@@ -95212,10 +95503,10 @@
     </row>
     <row r="3285">
       <c r="A3285" s="1" t="s">
+        <v>12762</v>
+      </c>
+      <c r="B3285" s="2" t="s">
         <v>12763</v>
-      </c>
-      <c r="B3285" s="2" t="s">
-        <v>12764</v>
       </c>
       <c r="C3285" s="7"/>
       <c r="D3285" s="7"/>
@@ -95223,10 +95514,10 @@
     </row>
     <row r="3286">
       <c r="A3286" s="1" t="s">
+        <v>12764</v>
+      </c>
+      <c r="B3286" s="2" t="s">
         <v>12765</v>
-      </c>
-      <c r="B3286" s="2" t="s">
-        <v>12766</v>
       </c>
       <c r="C3286" s="7"/>
       <c r="D3286" s="7"/>
@@ -95234,10 +95525,10 @@
     </row>
     <row r="3287">
       <c r="A3287" s="1" t="s">
+        <v>12766</v>
+      </c>
+      <c r="B3287" s="2" t="s">
         <v>12767</v>
-      </c>
-      <c r="B3287" s="2" t="s">
-        <v>12768</v>
       </c>
       <c r="C3287" s="7"/>
       <c r="D3287" s="7"/>
@@ -95245,10 +95536,10 @@
     </row>
     <row r="3288">
       <c r="A3288" s="1" t="s">
+        <v>12768</v>
+      </c>
+      <c r="B3288" s="2" t="s">
         <v>12769</v>
-      </c>
-      <c r="B3288" s="2" t="s">
-        <v>12770</v>
       </c>
       <c r="C3288" s="7"/>
       <c r="D3288" s="7"/>
@@ -95256,10 +95547,10 @@
     </row>
     <row r="3289">
       <c r="A3289" s="1" t="s">
+        <v>12770</v>
+      </c>
+      <c r="B3289" s="2" t="s">
         <v>12771</v>
-      </c>
-      <c r="B3289" s="2" t="s">
-        <v>12772</v>
       </c>
       <c r="C3289" s="7"/>
       <c r="D3289" s="7"/>
@@ -95267,10 +95558,10 @@
     </row>
     <row r="3290">
       <c r="A3290" s="1" t="s">
+        <v>12772</v>
+      </c>
+      <c r="B3290" s="2" t="s">
         <v>12773</v>
-      </c>
-      <c r="B3290" s="2" t="s">
-        <v>12774</v>
       </c>
       <c r="C3290" s="7"/>
       <c r="D3290" s="7"/>
@@ -95278,10 +95569,10 @@
     </row>
     <row r="3291">
       <c r="A3291" s="1" t="s">
+        <v>12774</v>
+      </c>
+      <c r="B3291" s="2" t="s">
         <v>12775</v>
-      </c>
-      <c r="B3291" s="2" t="s">
-        <v>12776</v>
       </c>
       <c r="C3291" s="7"/>
       <c r="D3291" s="7"/>
@@ -95289,10 +95580,10 @@
     </row>
     <row r="3292">
       <c r="A3292" s="1" t="s">
-        <v>12777</v>
+        <v>12776</v>
       </c>
       <c r="B3292" s="2" t="s">
-        <v>12778</v>
+        <v>5171</v>
       </c>
       <c r="C3292" s="7"/>
       <c r="D3292" s="7"/>
@@ -95300,10 +95591,10 @@
     </row>
     <row r="3293">
       <c r="A3293" s="1" t="s">
-        <v>12779</v>
+        <v>12777</v>
       </c>
       <c r="B3293" s="2" t="s">
-        <v>7307</v>
+        <v>12778</v>
       </c>
       <c r="C3293" s="7"/>
       <c r="D3293" s="7"/>
@@ -95311,10 +95602,10 @@
     </row>
     <row r="3294">
       <c r="A3294" s="1" t="s">
+        <v>12779</v>
+      </c>
+      <c r="B3294" s="2" t="s">
         <v>12780</v>
-      </c>
-      <c r="B3294" s="2" t="s">
-        <v>12781</v>
       </c>
       <c r="C3294" s="7"/>
       <c r="D3294" s="7"/>
@@ -95322,10 +95613,10 @@
     </row>
     <row r="3295">
       <c r="A3295" s="1" t="s">
-        <v>12782</v>
+        <v>12781</v>
       </c>
       <c r="B3295" s="2" t="s">
-        <v>12783</v>
+        <v>5733</v>
       </c>
       <c r="C3295" s="7"/>
       <c r="D3295" s="7"/>
@@ -95333,10 +95624,10 @@
     </row>
     <row r="3296">
       <c r="A3296" s="1" t="s">
-        <v>12784</v>
+        <v>12782</v>
       </c>
       <c r="B3296" s="2" t="s">
-        <v>12785</v>
+        <v>12783</v>
       </c>
       <c r="C3296" s="7"/>
       <c r="D3296" s="7"/>
@@ -95344,10 +95635,10 @@
     </row>
     <row r="3297">
       <c r="A3297" s="1" t="s">
-        <v>12786</v>
+        <v>12784</v>
       </c>
       <c r="B3297" s="2" t="s">
-        <v>12787</v>
+        <v>12785</v>
       </c>
       <c r="C3297" s="7"/>
       <c r="D3297" s="7"/>
@@ -95355,10 +95646,10 @@
     </row>
     <row r="3298">
       <c r="A3298" s="1" t="s">
-        <v>12788</v>
+        <v>12786</v>
       </c>
       <c r="B3298" s="2" t="s">
-        <v>12789</v>
+        <v>12787</v>
       </c>
       <c r="C3298" s="7"/>
       <c r="D3298" s="7"/>
@@ -95366,10 +95657,10 @@
     </row>
     <row r="3299">
       <c r="A3299" s="1" t="s">
-        <v>12790</v>
+        <v>12788</v>
       </c>
       <c r="B3299" s="2" t="s">
-        <v>12791</v>
+        <v>12789</v>
       </c>
       <c r="C3299" s="7"/>
       <c r="D3299" s="7"/>
@@ -95377,10 +95668,10 @@
     </row>
     <row r="3300">
       <c r="A3300" s="1" t="s">
-        <v>12792</v>
+        <v>12790</v>
       </c>
       <c r="B3300" s="2" t="s">
-        <v>12793</v>
+        <v>12791</v>
       </c>
       <c r="C3300" s="7"/>
       <c r="D3300" s="7"/>
@@ -95388,10 +95679,10 @@
     </row>
     <row r="3301">
       <c r="A3301" s="1" t="s">
-        <v>12794</v>
+        <v>12792</v>
       </c>
       <c r="B3301" s="2" t="s">
-        <v>12795</v>
+        <v>12793</v>
       </c>
       <c r="C3301" s="7"/>
       <c r="D3301" s="7"/>
@@ -95399,10 +95690,10 @@
     </row>
     <row r="3302">
       <c r="A3302" s="1" t="s">
-        <v>12796</v>
+        <v>12794</v>
       </c>
       <c r="B3302" s="2" t="s">
-        <v>12797</v>
+        <v>12795</v>
       </c>
       <c r="C3302" s="7"/>
       <c r="D3302" s="7"/>
@@ -95410,10 +95701,10 @@
     </row>
     <row r="3303">
       <c r="A3303" s="1" t="s">
-        <v>12798</v>
+        <v>12796</v>
       </c>
       <c r="B3303" s="2" t="s">
-        <v>12799</v>
+        <v>12797</v>
       </c>
       <c r="C3303" s="7"/>
       <c r="D3303" s="7"/>
@@ -95421,10 +95712,10 @@
     </row>
     <row r="3304">
       <c r="A3304" s="1" t="s">
-        <v>12800</v>
+        <v>12798</v>
       </c>
       <c r="B3304" s="2" t="s">
-        <v>12801</v>
+        <v>12799</v>
       </c>
       <c r="C3304" s="7"/>
       <c r="D3304" s="7"/>
@@ -95432,10 +95723,10 @@
     </row>
     <row r="3305">
       <c r="A3305" s="1" t="s">
-        <v>12802</v>
+        <v>12800</v>
       </c>
       <c r="B3305" s="2" t="s">
-        <v>12803</v>
+        <v>12801</v>
       </c>
       <c r="C3305" s="7"/>
       <c r="D3305" s="7"/>
@@ -95443,10 +95734,10 @@
     </row>
     <row r="3306">
       <c r="A3306" s="1" t="s">
-        <v>12804</v>
+        <v>12802</v>
       </c>
       <c r="B3306" s="2" t="s">
-        <v>12805</v>
+        <v>12803</v>
       </c>
       <c r="C3306" s="7"/>
       <c r="D3306" s="7"/>
@@ -95454,10 +95745,10 @@
     </row>
     <row r="3307">
       <c r="A3307" s="1" t="s">
-        <v>12806</v>
+        <v>12804</v>
       </c>
       <c r="B3307" s="2" t="s">
-        <v>12807</v>
+        <v>12805</v>
       </c>
       <c r="C3307" s="7"/>
       <c r="D3307" s="7"/>
@@ -95465,10 +95756,10 @@
     </row>
     <row r="3308">
       <c r="A3308" s="1" t="s">
-        <v>12808</v>
+        <v>12806</v>
       </c>
       <c r="B3308" s="2" t="s">
-        <v>12809</v>
+        <v>12807</v>
       </c>
       <c r="C3308" s="7"/>
       <c r="D3308" s="7"/>
@@ -95476,10 +95767,10 @@
     </row>
     <row r="3309">
       <c r="A3309" s="1" t="s">
-        <v>12810</v>
+        <v>12808</v>
       </c>
       <c r="B3309" s="2" t="s">
-        <v>12811</v>
+        <v>12809</v>
       </c>
       <c r="C3309" s="7"/>
       <c r="D3309" s="7"/>
@@ -95487,10 +95778,10 @@
     </row>
     <row r="3310">
       <c r="A3310" s="1" t="s">
-        <v>12812</v>
+        <v>12810</v>
       </c>
       <c r="B3310" s="2" t="s">
-        <v>12813</v>
+        <v>12811</v>
       </c>
       <c r="C3310" s="7"/>
       <c r="D3310" s="7"/>
@@ -95498,10 +95789,10 @@
     </row>
     <row r="3311">
       <c r="A3311" s="1" t="s">
-        <v>12814</v>
+        <v>12812</v>
       </c>
       <c r="B3311" s="2" t="s">
-        <v>12815</v>
+        <v>12813</v>
       </c>
       <c r="C3311" s="7"/>
       <c r="D3311" s="7"/>
@@ -95509,10 +95800,10 @@
     </row>
     <row r="3312">
       <c r="A3312" s="1" t="s">
-        <v>12816</v>
+        <v>12814</v>
       </c>
       <c r="B3312" s="2" t="s">
-        <v>12817</v>
+        <v>12815</v>
       </c>
       <c r="C3312" s="7"/>
       <c r="D3312" s="7"/>
@@ -95520,10 +95811,10 @@
     </row>
     <row r="3313">
       <c r="A3313" s="1" t="s">
-        <v>12818</v>
+        <v>12816</v>
       </c>
       <c r="B3313" s="2" t="s">
-        <v>12819</v>
+        <v>12817</v>
       </c>
       <c r="C3313" s="7"/>
       <c r="D3313" s="7"/>
@@ -95531,10 +95822,10 @@
     </row>
     <row r="3314">
       <c r="A3314" s="1" t="s">
-        <v>12820</v>
+        <v>12818</v>
       </c>
       <c r="B3314" s="2" t="s">
-        <v>12821</v>
+        <v>12819</v>
       </c>
       <c r="C3314" s="7"/>
       <c r="D3314" s="7"/>
@@ -95542,10 +95833,10 @@
     </row>
     <row r="3315">
       <c r="A3315" s="1" t="s">
-        <v>12822</v>
+        <v>12820</v>
       </c>
       <c r="B3315" s="2" t="s">
-        <v>12823</v>
+        <v>12821</v>
       </c>
       <c r="C3315" s="7"/>
       <c r="D3315" s="7"/>
@@ -95553,10 +95844,10 @@
     </row>
     <row r="3316">
       <c r="A3316" s="1" t="s">
-        <v>12824</v>
+        <v>12822</v>
       </c>
       <c r="B3316" s="2" t="s">
-        <v>12825</v>
+        <v>12823</v>
       </c>
       <c r="C3316" s="7"/>
       <c r="D3316" s="7"/>
@@ -95564,10 +95855,10 @@
     </row>
     <row r="3317">
       <c r="A3317" s="1" t="s">
-        <v>12826</v>
+        <v>12824</v>
       </c>
       <c r="B3317" s="2" t="s">
-        <v>12827</v>
+        <v>5553</v>
       </c>
       <c r="C3317" s="7"/>
       <c r="D3317" s="7"/>
@@ -95575,10 +95866,10 @@
     </row>
     <row r="3318">
       <c r="A3318" s="1" t="s">
-        <v>12828</v>
+        <v>12825</v>
       </c>
       <c r="B3318" s="2" t="s">
-        <v>12829</v>
+        <v>12826</v>
       </c>
       <c r="C3318" s="7"/>
       <c r="D3318" s="7"/>
@@ -95586,10 +95877,10 @@
     </row>
     <row r="3319">
       <c r="A3319" s="1" t="s">
-        <v>12830</v>
+        <v>12827</v>
       </c>
       <c r="B3319" s="2" t="s">
-        <v>12831</v>
+        <v>12828</v>
       </c>
       <c r="C3319" s="7"/>
       <c r="D3319" s="7"/>
@@ -95597,10 +95888,10 @@
     </row>
     <row r="3320">
       <c r="A3320" s="1" t="s">
-        <v>12832</v>
+        <v>12829</v>
       </c>
       <c r="B3320" s="2" t="s">
-        <v>12833</v>
+        <v>12830</v>
       </c>
       <c r="C3320" s="7"/>
       <c r="D3320" s="7"/>
@@ -95608,10 +95899,10 @@
     </row>
     <row r="3321">
       <c r="A3321" s="1" t="s">
-        <v>12834</v>
+        <v>12831</v>
       </c>
       <c r="B3321" s="2" t="s">
-        <v>12835</v>
+        <v>12832</v>
       </c>
       <c r="C3321" s="7"/>
       <c r="D3321" s="7"/>
@@ -95619,10 +95910,10 @@
     </row>
     <row r="3322">
       <c r="A3322" s="1" t="s">
-        <v>12836</v>
+        <v>12833</v>
       </c>
       <c r="B3322" s="2" t="s">
-        <v>12837</v>
+        <v>12257</v>
       </c>
       <c r="C3322" s="7"/>
       <c r="D3322" s="7"/>
@@ -95630,10 +95921,10 @@
     </row>
     <row r="3323">
       <c r="A3323" s="1" t="s">
-        <v>12838</v>
+        <v>12834</v>
       </c>
       <c r="B3323" s="2" t="s">
-        <v>12839</v>
+        <v>5840</v>
       </c>
       <c r="C3323" s="7"/>
       <c r="D3323" s="7"/>
@@ -95641,10 +95932,10 @@
     </row>
     <row r="3324">
       <c r="A3324" s="1" t="s">
-        <v>12840</v>
+        <v>12835</v>
       </c>
       <c r="B3324" s="2" t="s">
-        <v>12841</v>
+        <v>5163</v>
       </c>
       <c r="C3324" s="7"/>
       <c r="D3324" s="7"/>
@@ -95652,10 +95943,10 @@
     </row>
     <row r="3325">
       <c r="A3325" s="1" t="s">
-        <v>12842</v>
+        <v>12836</v>
       </c>
       <c r="B3325" s="2" t="s">
-        <v>12843</v>
+        <v>12837</v>
       </c>
       <c r="C3325" s="7"/>
       <c r="D3325" s="7"/>
@@ -95663,10 +95954,10 @@
     </row>
     <row r="3326">
       <c r="A3326" s="1" t="s">
-        <v>12844</v>
+        <v>12838</v>
       </c>
       <c r="B3326" s="2" t="s">
-        <v>12845</v>
+        <v>12839</v>
       </c>
       <c r="C3326" s="7"/>
       <c r="D3326" s="7"/>
@@ -95674,10 +95965,10 @@
     </row>
     <row r="3327">
       <c r="A3327" s="1" t="s">
-        <v>12846</v>
+        <v>12840</v>
       </c>
       <c r="B3327" s="2" t="s">
-        <v>12847</v>
+        <v>9627</v>
       </c>
       <c r="C3327" s="7"/>
       <c r="D3327" s="7"/>
@@ -95685,10 +95976,10 @@
     </row>
     <row r="3328">
       <c r="A3328" s="1" t="s">
-        <v>12848</v>
+        <v>12841</v>
       </c>
       <c r="B3328" s="2" t="s">
-        <v>12849</v>
+        <v>12842</v>
       </c>
       <c r="C3328" s="7"/>
       <c r="D3328" s="7"/>
@@ -95696,10 +95987,10 @@
     </row>
     <row r="3329">
       <c r="A3329" s="1" t="s">
-        <v>12850</v>
+        <v>12843</v>
       </c>
       <c r="B3329" s="2" t="s">
-        <v>12851</v>
+        <v>12844</v>
       </c>
       <c r="C3329" s="7"/>
       <c r="D3329" s="7"/>
@@ -95707,10 +95998,10 @@
     </row>
     <row r="3330">
       <c r="A3330" s="1" t="s">
-        <v>12852</v>
+        <v>12845</v>
       </c>
       <c r="B3330" s="2" t="s">
-        <v>12853</v>
+        <v>12846</v>
       </c>
       <c r="C3330" s="7"/>
       <c r="D3330" s="7"/>
@@ -95718,10 +96009,10 @@
     </row>
     <row r="3331">
       <c r="A3331" s="1" t="s">
-        <v>12854</v>
+        <v>12847</v>
       </c>
       <c r="B3331" s="2" t="s">
-        <v>12855</v>
+        <v>5137</v>
       </c>
       <c r="C3331" s="7"/>
       <c r="D3331" s="7"/>
@@ -95729,10 +96020,10 @@
     </row>
     <row r="3332">
       <c r="A3332" s="1" t="s">
-        <v>12856</v>
+        <v>12848</v>
       </c>
       <c r="B3332" s="2" t="s">
-        <v>12857</v>
+        <v>4913</v>
       </c>
       <c r="C3332" s="7"/>
       <c r="D3332" s="7"/>
@@ -95740,10 +96031,10 @@
     </row>
     <row r="3333">
       <c r="A3333" s="1" t="s">
-        <v>12858</v>
+        <v>12849</v>
       </c>
       <c r="B3333" s="2" t="s">
-        <v>12859</v>
+        <v>12850</v>
       </c>
       <c r="C3333" s="7"/>
       <c r="D3333" s="7"/>
@@ -95751,10 +96042,10 @@
     </row>
     <row r="3334">
       <c r="A3334" s="1" t="s">
-        <v>12860</v>
+        <v>12851</v>
       </c>
       <c r="B3334" s="2" t="s">
-        <v>12861</v>
+        <v>5171</v>
       </c>
       <c r="C3334" s="7"/>
       <c r="D3334" s="7"/>
@@ -95762,10 +96053,10 @@
     </row>
     <row r="3335">
       <c r="A3335" s="1" t="s">
-        <v>12862</v>
+        <v>12852</v>
       </c>
       <c r="B3335" s="2" t="s">
-        <v>12863</v>
+        <v>12853</v>
       </c>
       <c r="C3335" s="7"/>
       <c r="D3335" s="7"/>
@@ -95773,10 +96064,10 @@
     </row>
     <row r="3336">
       <c r="A3336" s="1" t="s">
-        <v>12864</v>
+        <v>12854</v>
       </c>
       <c r="B3336" s="2" t="s">
-        <v>12865</v>
+        <v>12855</v>
       </c>
       <c r="C3336" s="7"/>
       <c r="D3336" s="7"/>
@@ -95784,10 +96075,10 @@
     </row>
     <row r="3337">
       <c r="A3337" s="1" t="s">
-        <v>12866</v>
+        <v>12856</v>
       </c>
       <c r="B3337" s="2" t="s">
-        <v>12867</v>
+        <v>244</v>
       </c>
       <c r="C3337" s="7"/>
       <c r="D3337" s="7"/>
@@ -95795,10 +96086,10 @@
     </row>
     <row r="3338">
       <c r="A3338" s="1" t="s">
-        <v>12868</v>
+        <v>12857</v>
       </c>
       <c r="B3338" s="2" t="s">
-        <v>12869</v>
+        <v>6011</v>
       </c>
       <c r="C3338" s="7"/>
       <c r="D3338" s="7"/>
@@ -95806,10 +96097,10 @@
     </row>
     <row r="3339">
       <c r="A3339" s="1" t="s">
-        <v>12870</v>
+        <v>12858</v>
       </c>
       <c r="B3339" s="2" t="s">
-        <v>12871</v>
+        <v>12859</v>
       </c>
       <c r="C3339" s="7"/>
       <c r="D3339" s="7"/>
@@ -95817,10 +96108,10 @@
     </row>
     <row r="3340">
       <c r="A3340" s="1" t="s">
-        <v>12872</v>
+        <v>12860</v>
       </c>
       <c r="B3340" s="2" t="s">
-        <v>12873</v>
+        <v>12861</v>
       </c>
       <c r="C3340" s="7"/>
       <c r="D3340" s="7"/>
@@ -95828,10 +96119,10 @@
     </row>
     <row r="3341">
       <c r="A3341" s="1" t="s">
-        <v>12874</v>
+        <v>12862</v>
       </c>
       <c r="B3341" s="2" t="s">
-        <v>12875</v>
+        <v>12863</v>
       </c>
       <c r="C3341" s="7"/>
       <c r="D3341" s="7"/>
@@ -95839,10 +96130,10 @@
     </row>
     <row r="3342">
       <c r="A3342" s="1" t="s">
-        <v>12876</v>
+        <v>12864</v>
       </c>
       <c r="B3342" s="2" t="s">
-        <v>12877</v>
+        <v>12865</v>
       </c>
       <c r="C3342" s="7"/>
       <c r="D3342" s="7"/>
@@ -95850,10 +96141,10 @@
     </row>
     <row r="3343">
       <c r="A3343" s="1" t="s">
-        <v>12878</v>
+        <v>12866</v>
       </c>
       <c r="B3343" s="2" t="s">
-        <v>12879</v>
+        <v>12867</v>
       </c>
       <c r="C3343" s="7"/>
       <c r="D3343" s="7"/>
@@ -95861,10 +96152,10 @@
     </row>
     <row r="3344">
       <c r="A3344" s="1" t="s">
-        <v>12880</v>
+        <v>12868</v>
       </c>
       <c r="B3344" s="2" t="s">
-        <v>12881</v>
+        <v>12869</v>
       </c>
       <c r="C3344" s="7"/>
       <c r="D3344" s="7"/>
@@ -95872,10 +96163,10 @@
     </row>
     <row r="3345">
       <c r="A3345" s="1" t="s">
-        <v>12882</v>
+        <v>12870</v>
       </c>
       <c r="B3345" s="2" t="s">
-        <v>12883</v>
+        <v>12871</v>
       </c>
       <c r="C3345" s="7"/>
       <c r="D3345" s="7"/>
@@ -95883,10 +96174,10 @@
     </row>
     <row r="3346">
       <c r="A3346" s="1" t="s">
-        <v>12884</v>
+        <v>12872</v>
       </c>
       <c r="B3346" s="2" t="s">
-        <v>12885</v>
+        <v>12873</v>
       </c>
       <c r="C3346" s="7"/>
       <c r="D3346" s="7"/>
@@ -95894,10 +96185,10 @@
     </row>
     <row r="3347">
       <c r="A3347" s="1" t="s">
-        <v>12886</v>
+        <v>12874</v>
       </c>
       <c r="B3347" s="2" t="s">
-        <v>12887</v>
+        <v>12875</v>
       </c>
       <c r="C3347" s="7"/>
       <c r="D3347" s="7"/>
@@ -95905,10 +96196,10 @@
     </row>
     <row r="3348">
       <c r="A3348" s="1" t="s">
-        <v>12888</v>
+        <v>12876</v>
       </c>
       <c r="B3348" s="2" t="s">
-        <v>12889</v>
+        <v>12877</v>
       </c>
       <c r="C3348" s="7"/>
       <c r="D3348" s="7"/>
@@ -95916,10 +96207,10 @@
     </row>
     <row r="3349">
       <c r="A3349" s="1" t="s">
-        <v>12890</v>
+        <v>12878</v>
       </c>
       <c r="B3349" s="2" t="s">
-        <v>12891</v>
+        <v>12879</v>
       </c>
       <c r="C3349" s="7"/>
       <c r="D3349" s="7"/>
@@ -95927,10 +96218,10 @@
     </row>
     <row r="3350">
       <c r="A3350" s="1" t="s">
-        <v>12892</v>
+        <v>12880</v>
       </c>
       <c r="B3350" s="2" t="s">
-        <v>12893</v>
+        <v>12881</v>
       </c>
       <c r="C3350" s="7"/>
       <c r="D3350" s="7"/>
@@ -95938,10 +96229,10 @@
     </row>
     <row r="3351">
       <c r="A3351" s="1" t="s">
-        <v>12894</v>
+        <v>12882</v>
       </c>
       <c r="B3351" s="2" t="s">
-        <v>12895</v>
+        <v>12883</v>
       </c>
       <c r="C3351" s="7"/>
       <c r="D3351" s="7"/>
@@ -95949,10 +96240,10 @@
     </row>
     <row r="3352">
       <c r="A3352" s="1" t="s">
-        <v>12896</v>
+        <v>12884</v>
       </c>
       <c r="B3352" s="2" t="s">
-        <v>12897</v>
+        <v>12885</v>
       </c>
       <c r="C3352" s="7"/>
       <c r="D3352" s="7"/>
@@ -95960,10 +96251,10 @@
     </row>
     <row r="3353">
       <c r="A3353" s="1" t="s">
-        <v>12898</v>
+        <v>12886</v>
       </c>
       <c r="B3353" s="2" t="s">
-        <v>12899</v>
+        <v>12887</v>
       </c>
       <c r="C3353" s="7"/>
       <c r="D3353" s="7"/>
@@ -95971,10 +96262,10 @@
     </row>
     <row r="3354">
       <c r="A3354" s="1" t="s">
-        <v>12900</v>
+        <v>12888</v>
       </c>
       <c r="B3354" s="2" t="s">
-        <v>12901</v>
+        <v>12889</v>
       </c>
       <c r="C3354" s="7"/>
       <c r="D3354" s="7"/>
@@ -95982,10 +96273,10 @@
     </row>
     <row r="3355">
       <c r="A3355" s="1" t="s">
-        <v>12902</v>
+        <v>12890</v>
       </c>
       <c r="B3355" s="2" t="s">
-        <v>12903</v>
+        <v>12891</v>
       </c>
       <c r="C3355" s="7"/>
       <c r="D3355" s="7"/>
@@ -95993,10 +96284,10 @@
     </row>
     <row r="3356">
       <c r="A3356" s="1" t="s">
-        <v>12904</v>
+        <v>12892</v>
       </c>
       <c r="B3356" s="2" t="s">
-        <v>12905</v>
+        <v>12893</v>
       </c>
       <c r="C3356" s="7"/>
       <c r="D3356" s="7"/>
@@ -96004,10 +96295,10 @@
     </row>
     <row r="3357">
       <c r="A3357" s="1" t="s">
-        <v>12906</v>
+        <v>12894</v>
       </c>
       <c r="B3357" s="2" t="s">
-        <v>12907</v>
+        <v>12895</v>
       </c>
       <c r="C3357" s="7"/>
       <c r="D3357" s="7"/>
@@ -96015,10 +96306,10 @@
     </row>
     <row r="3358">
       <c r="A3358" s="1" t="s">
-        <v>12908</v>
+        <v>12896</v>
       </c>
       <c r="B3358" s="2" t="s">
-        <v>12909</v>
+        <v>12897</v>
       </c>
       <c r="C3358" s="7"/>
       <c r="D3358" s="7"/>
@@ -96026,10 +96317,10 @@
     </row>
     <row r="3359">
       <c r="A3359" s="1" t="s">
-        <v>12910</v>
+        <v>12898</v>
       </c>
       <c r="B3359" s="2" t="s">
-        <v>12911</v>
+        <v>12899</v>
       </c>
       <c r="C3359" s="7"/>
       <c r="D3359" s="7"/>
@@ -96037,10 +96328,10 @@
     </row>
     <row r="3360">
       <c r="A3360" s="1" t="s">
-        <v>12912</v>
+        <v>12900</v>
       </c>
       <c r="B3360" s="2" t="s">
-        <v>12913</v>
+        <v>12901</v>
       </c>
       <c r="C3360" s="7"/>
       <c r="D3360" s="7"/>
@@ -96048,10 +96339,10 @@
     </row>
     <row r="3361">
       <c r="A3361" s="1" t="s">
-        <v>12914</v>
+        <v>12902</v>
       </c>
       <c r="B3361" s="2" t="s">
-        <v>12915</v>
+        <v>12903</v>
       </c>
       <c r="C3361" s="7"/>
       <c r="D3361" s="7"/>
@@ -96059,10 +96350,10 @@
     </row>
     <row r="3362">
       <c r="A3362" s="1" t="s">
-        <v>12916</v>
+        <v>12904</v>
       </c>
       <c r="B3362" s="2" t="s">
-        <v>12917</v>
+        <v>12905</v>
       </c>
       <c r="C3362" s="7"/>
       <c r="D3362" s="7"/>
@@ -96070,10 +96361,10 @@
     </row>
     <row r="3363">
       <c r="A3363" s="1" t="s">
-        <v>12918</v>
+        <v>12906</v>
       </c>
       <c r="B3363" s="2" t="s">
-        <v>12919</v>
+        <v>12907</v>
       </c>
       <c r="C3363" s="7"/>
       <c r="D3363" s="7"/>
@@ -96081,10 +96372,10 @@
     </row>
     <row r="3364">
       <c r="A3364" s="1" t="s">
-        <v>12920</v>
+        <v>12908</v>
       </c>
       <c r="B3364" s="2" t="s">
-        <v>12921</v>
+        <v>12909</v>
       </c>
       <c r="C3364" s="7"/>
       <c r="D3364" s="7"/>
@@ -96092,10 +96383,10 @@
     </row>
     <row r="3365">
       <c r="A3365" s="1" t="s">
-        <v>12922</v>
+        <v>12910</v>
       </c>
       <c r="B3365" s="2" t="s">
-        <v>12923</v>
+        <v>12911</v>
       </c>
       <c r="C3365" s="7"/>
       <c r="D3365" s="7"/>
@@ -96103,10 +96394,10 @@
     </row>
     <row r="3366">
       <c r="A3366" s="1" t="s">
-        <v>12924</v>
+        <v>12912</v>
       </c>
       <c r="B3366" s="2" t="s">
-        <v>12925</v>
+        <v>12913</v>
       </c>
       <c r="C3366" s="7"/>
       <c r="D3366" s="7"/>
@@ -96114,10 +96405,10 @@
     </row>
     <row r="3367">
       <c r="A3367" s="1" t="s">
-        <v>12926</v>
+        <v>12914</v>
       </c>
       <c r="B3367" s="2" t="s">
-        <v>12926</v>
+        <v>12915</v>
       </c>
       <c r="C3367" s="7"/>
       <c r="D3367" s="7"/>
@@ -96125,10 +96416,10 @@
     </row>
     <row r="3368">
       <c r="A3368" s="1" t="s">
-        <v>12927</v>
+        <v>12916</v>
       </c>
       <c r="B3368" s="2" t="s">
-        <v>12927</v>
+        <v>12917</v>
       </c>
       <c r="C3368" s="7"/>
       <c r="D3368" s="7"/>
@@ -96136,10 +96427,10 @@
     </row>
     <row r="3369">
       <c r="A3369" s="1" t="s">
-        <v>12928</v>
+        <v>12918</v>
       </c>
       <c r="B3369" s="2" t="s">
-        <v>12928</v>
+        <v>12919</v>
       </c>
       <c r="C3369" s="7"/>
       <c r="D3369" s="7"/>
@@ -96147,10 +96438,10 @@
     </row>
     <row r="3370">
       <c r="A3370" s="1" t="s">
-        <v>12929</v>
+        <v>12920</v>
       </c>
       <c r="B3370" s="2" t="s">
-        <v>12929</v>
+        <v>12921</v>
       </c>
       <c r="C3370" s="7"/>
       <c r="D3370" s="7"/>
@@ -96158,10 +96449,10 @@
     </row>
     <row r="3371">
       <c r="A3371" s="1" t="s">
-        <v>12930</v>
+        <v>12922</v>
       </c>
       <c r="B3371" s="2" t="s">
-        <v>12930</v>
+        <v>12923</v>
       </c>
       <c r="C3371" s="7"/>
       <c r="D3371" s="7"/>
@@ -96169,10 +96460,10 @@
     </row>
     <row r="3372">
       <c r="A3372" s="1" t="s">
-        <v>12931</v>
+        <v>12924</v>
       </c>
       <c r="B3372" s="2" t="s">
-        <v>12931</v>
+        <v>12925</v>
       </c>
       <c r="C3372" s="7"/>
       <c r="D3372" s="7"/>
@@ -96180,10 +96471,10 @@
     </row>
     <row r="3373">
       <c r="A3373" s="1" t="s">
-        <v>12932</v>
+        <v>12926</v>
       </c>
       <c r="B3373" s="2" t="s">
-        <v>12932</v>
+        <v>12927</v>
       </c>
       <c r="C3373" s="7"/>
       <c r="D3373" s="7"/>
@@ -96191,10 +96482,10 @@
     </row>
     <row r="3374">
       <c r="A3374" s="1" t="s">
-        <v>12933</v>
+        <v>12928</v>
       </c>
       <c r="B3374" s="2" t="s">
-        <v>12933</v>
+        <v>12929</v>
       </c>
       <c r="C3374" s="7"/>
       <c r="D3374" s="7"/>
@@ -96202,10 +96493,10 @@
     </row>
     <row r="3375">
       <c r="A3375" s="1" t="s">
-        <v>12934</v>
+        <v>12930</v>
       </c>
       <c r="B3375" s="2" t="s">
-        <v>12934</v>
+        <v>12931</v>
       </c>
       <c r="C3375" s="7"/>
       <c r="D3375" s="7"/>
@@ -96213,10 +96504,10 @@
     </row>
     <row r="3376">
       <c r="A3376" s="1" t="s">
-        <v>12935</v>
+        <v>12932</v>
       </c>
       <c r="B3376" s="2" t="s">
-        <v>12935</v>
+        <v>12933</v>
       </c>
       <c r="C3376" s="7"/>
       <c r="D3376" s="7"/>
@@ -96224,10 +96515,10 @@
     </row>
     <row r="3377">
       <c r="A3377" s="1" t="s">
-        <v>12936</v>
+        <v>12934</v>
       </c>
       <c r="B3377" s="2" t="s">
-        <v>12936</v>
+        <v>12935</v>
       </c>
       <c r="C3377" s="7"/>
       <c r="D3377" s="7"/>
@@ -96235,7 +96526,7 @@
     </row>
     <row r="3378">
       <c r="A3378" s="1" t="s">
-        <v>12937</v>
+        <v>12936</v>
       </c>
       <c r="B3378" s="2" t="s">
         <v>12937</v>
@@ -96249,7 +96540,7 @@
         <v>12938</v>
       </c>
       <c r="B3379" s="2" t="s">
-        <v>12938</v>
+        <v>12939</v>
       </c>
       <c r="C3379" s="7"/>
       <c r="D3379" s="7"/>
@@ -96257,10 +96548,10 @@
     </row>
     <row r="3380">
       <c r="A3380" s="1" t="s">
-        <v>12939</v>
+        <v>12940</v>
       </c>
       <c r="B3380" s="2" t="s">
-        <v>12939</v>
+        <v>12941</v>
       </c>
       <c r="C3380" s="7"/>
       <c r="D3380" s="7"/>
@@ -96268,10 +96559,10 @@
     </row>
     <row r="3381">
       <c r="A3381" s="1" t="s">
-        <v>12940</v>
+        <v>12942</v>
       </c>
       <c r="B3381" s="2" t="s">
-        <v>12940</v>
+        <v>12943</v>
       </c>
       <c r="C3381" s="7"/>
       <c r="D3381" s="7"/>
@@ -96279,10 +96570,10 @@
     </row>
     <row r="3382">
       <c r="A3382" s="1" t="s">
-        <v>12941</v>
+        <v>12944</v>
       </c>
       <c r="B3382" s="2" t="s">
-        <v>12941</v>
+        <v>12945</v>
       </c>
       <c r="C3382" s="7"/>
       <c r="D3382" s="7"/>
@@ -96290,10 +96581,10 @@
     </row>
     <row r="3383">
       <c r="A3383" s="1" t="s">
-        <v>12942</v>
+        <v>12946</v>
       </c>
       <c r="B3383" s="2" t="s">
-        <v>12942</v>
+        <v>12947</v>
       </c>
       <c r="C3383" s="7"/>
       <c r="D3383" s="7"/>
@@ -96301,10 +96592,10 @@
     </row>
     <row r="3384">
       <c r="A3384" s="1" t="s">
-        <v>12943</v>
+        <v>12948</v>
       </c>
       <c r="B3384" s="2" t="s">
-        <v>12943</v>
+        <v>12949</v>
       </c>
       <c r="C3384" s="7"/>
       <c r="D3384" s="7"/>
@@ -96312,10 +96603,10 @@
     </row>
     <row r="3385">
       <c r="A3385" s="1" t="s">
-        <v>12944</v>
+        <v>12950</v>
       </c>
       <c r="B3385" s="2" t="s">
-        <v>12944</v>
+        <v>12951</v>
       </c>
       <c r="C3385" s="7"/>
       <c r="D3385" s="7"/>
@@ -96323,10 +96614,10 @@
     </row>
     <row r="3386">
       <c r="A3386" s="1" t="s">
-        <v>12945</v>
+        <v>12952</v>
       </c>
       <c r="B3386" s="2" t="s">
-        <v>12945</v>
+        <v>12953</v>
       </c>
       <c r="C3386" s="7"/>
       <c r="D3386" s="7"/>
@@ -96334,10 +96625,10 @@
     </row>
     <row r="3387">
       <c r="A3387" s="1" t="s">
-        <v>12946</v>
+        <v>12954</v>
       </c>
       <c r="B3387" s="2" t="s">
-        <v>12946</v>
+        <v>12955</v>
       </c>
       <c r="C3387" s="7"/>
       <c r="D3387" s="7"/>
@@ -96345,10 +96636,10 @@
     </row>
     <row r="3388">
       <c r="A3388" s="1" t="s">
-        <v>12947</v>
+        <v>12956</v>
       </c>
       <c r="B3388" s="2" t="s">
-        <v>12947</v>
+        <v>12957</v>
       </c>
       <c r="C3388" s="7"/>
       <c r="D3388" s="7"/>
@@ -96356,10 +96647,10 @@
     </row>
     <row r="3389">
       <c r="A3389" s="1" t="s">
-        <v>12948</v>
+        <v>12958</v>
       </c>
       <c r="B3389" s="2" t="s">
-        <v>12948</v>
+        <v>12959</v>
       </c>
       <c r="C3389" s="7"/>
       <c r="D3389" s="7"/>
@@ -96367,10 +96658,10 @@
     </row>
     <row r="3390">
       <c r="A3390" s="1" t="s">
-        <v>12949</v>
+        <v>12960</v>
       </c>
       <c r="B3390" s="2" t="s">
-        <v>12949</v>
+        <v>12961</v>
       </c>
       <c r="C3390" s="7"/>
       <c r="D3390" s="7"/>
@@ -96378,10 +96669,10 @@
     </row>
     <row r="3391">
       <c r="A3391" s="1" t="s">
-        <v>12950</v>
+        <v>12962</v>
       </c>
       <c r="B3391" s="2" t="s">
-        <v>12950</v>
+        <v>12963</v>
       </c>
       <c r="C3391" s="7"/>
       <c r="D3391" s="7"/>
@@ -96389,10 +96680,10 @@
     </row>
     <row r="3392">
       <c r="A3392" s="1" t="s">
-        <v>12951</v>
+        <v>12964</v>
       </c>
       <c r="B3392" s="2" t="s">
-        <v>12951</v>
+        <v>12965</v>
       </c>
       <c r="C3392" s="7"/>
       <c r="D3392" s="7"/>
@@ -96400,10 +96691,10 @@
     </row>
     <row r="3393">
       <c r="A3393" s="1" t="s">
-        <v>12950</v>
+        <v>12966</v>
       </c>
       <c r="B3393" s="2" t="s">
-        <v>12950</v>
+        <v>12967</v>
       </c>
       <c r="C3393" s="7"/>
       <c r="D3393" s="7"/>
@@ -96411,10 +96702,10 @@
     </row>
     <row r="3394">
       <c r="A3394" s="1" t="s">
-        <v>12952</v>
+        <v>12968</v>
       </c>
       <c r="B3394" s="2" t="s">
-        <v>12952</v>
+        <v>12969</v>
       </c>
       <c r="C3394" s="7"/>
       <c r="D3394" s="7"/>
@@ -96422,10 +96713,10 @@
     </row>
     <row r="3395">
       <c r="A3395" s="1" t="s">
-        <v>12953</v>
+        <v>12970</v>
       </c>
       <c r="B3395" s="2" t="s">
-        <v>12953</v>
+        <v>12971</v>
       </c>
       <c r="C3395" s="7"/>
       <c r="D3395" s="7"/>
@@ -96433,10 +96724,10 @@
     </row>
     <row r="3396">
       <c r="A3396" s="1" t="s">
-        <v>12954</v>
+        <v>12972</v>
       </c>
       <c r="B3396" s="2" t="s">
-        <v>12954</v>
+        <v>12973</v>
       </c>
       <c r="C3396" s="7"/>
       <c r="D3396" s="7"/>
@@ -96444,10 +96735,10 @@
     </row>
     <row r="3397">
       <c r="A3397" s="1" t="s">
-        <v>12955</v>
+        <v>12974</v>
       </c>
       <c r="B3397" s="2" t="s">
-        <v>12955</v>
+        <v>12974</v>
       </c>
       <c r="C3397" s="7"/>
       <c r="D3397" s="7"/>
@@ -96455,10 +96746,10 @@
     </row>
     <row r="3398">
       <c r="A3398" s="1" t="s">
-        <v>12956</v>
+        <v>12975</v>
       </c>
       <c r="B3398" s="2" t="s">
-        <v>12956</v>
+        <v>12975</v>
       </c>
       <c r="C3398" s="7"/>
       <c r="D3398" s="7"/>
@@ -96466,10 +96757,10 @@
     </row>
     <row r="3399">
       <c r="A3399" s="1" t="s">
-        <v>12957</v>
+        <v>12976</v>
       </c>
       <c r="B3399" s="2" t="s">
-        <v>12957</v>
+        <v>12976</v>
       </c>
       <c r="C3399" s="7"/>
       <c r="D3399" s="7"/>
@@ -96477,10 +96768,10 @@
     </row>
     <row r="3400">
       <c r="A3400" s="1" t="s">
-        <v>12958</v>
+        <v>12977</v>
       </c>
       <c r="B3400" s="2" t="s">
-        <v>12958</v>
+        <v>12977</v>
       </c>
       <c r="C3400" s="7"/>
       <c r="D3400" s="7"/>
@@ -96488,10 +96779,10 @@
     </row>
     <row r="3401">
       <c r="A3401" s="1" t="s">
-        <v>12959</v>
+        <v>12978</v>
       </c>
       <c r="B3401" s="2" t="s">
-        <v>12959</v>
+        <v>12978</v>
       </c>
       <c r="C3401" s="7"/>
       <c r="D3401" s="7"/>
@@ -96499,10 +96790,10 @@
     </row>
     <row r="3402">
       <c r="A3402" s="1" t="s">
-        <v>12960</v>
+        <v>12979</v>
       </c>
       <c r="B3402" s="2" t="s">
-        <v>12960</v>
+        <v>12979</v>
       </c>
       <c r="C3402" s="7"/>
       <c r="D3402" s="7"/>
@@ -96510,10 +96801,10 @@
     </row>
     <row r="3403">
       <c r="A3403" s="1" t="s">
-        <v>9632</v>
+        <v>12980</v>
       </c>
       <c r="B3403" s="2" t="s">
-        <v>9632</v>
+        <v>12980</v>
       </c>
       <c r="C3403" s="7"/>
       <c r="D3403" s="7"/>
@@ -96521,10 +96812,10 @@
     </row>
     <row r="3404">
       <c r="A3404" s="1" t="s">
-        <v>12961</v>
+        <v>12981</v>
       </c>
       <c r="B3404" s="2" t="s">
-        <v>12961</v>
+        <v>12981</v>
       </c>
       <c r="C3404" s="7"/>
       <c r="D3404" s="7"/>
@@ -96532,10 +96823,10 @@
     </row>
     <row r="3405">
       <c r="A3405" s="1" t="s">
-        <v>12962</v>
+        <v>12982</v>
       </c>
       <c r="B3405" s="2" t="s">
-        <v>12962</v>
+        <v>12982</v>
       </c>
       <c r="C3405" s="7"/>
       <c r="D3405" s="7"/>
@@ -96543,10 +96834,10 @@
     </row>
     <row r="3406">
       <c r="A3406" s="1" t="s">
-        <v>12963</v>
+        <v>12983</v>
       </c>
       <c r="B3406" s="2" t="s">
-        <v>12963</v>
+        <v>12983</v>
       </c>
       <c r="C3406" s="7"/>
       <c r="D3406" s="7"/>
@@ -96554,10 +96845,10 @@
     </row>
     <row r="3407">
       <c r="A3407" s="1" t="s">
-        <v>12964</v>
+        <v>12984</v>
       </c>
       <c r="B3407" s="2" t="s">
-        <v>12964</v>
+        <v>12984</v>
       </c>
       <c r="C3407" s="7"/>
       <c r="D3407" s="7"/>
@@ -96565,10 +96856,10 @@
     </row>
     <row r="3408">
       <c r="A3408" s="1" t="s">
-        <v>12965</v>
+        <v>12985</v>
       </c>
       <c r="B3408" s="2" t="s">
-        <v>12965</v>
+        <v>12985</v>
       </c>
       <c r="C3408" s="7"/>
       <c r="D3408" s="7"/>
@@ -96576,10 +96867,10 @@
     </row>
     <row r="3409">
       <c r="A3409" s="1" t="s">
-        <v>12966</v>
+        <v>12986</v>
       </c>
       <c r="B3409" s="2" t="s">
-        <v>12966</v>
+        <v>12986</v>
       </c>
       <c r="C3409" s="7"/>
       <c r="D3409" s="7"/>
@@ -96587,10 +96878,10 @@
     </row>
     <row r="3410">
       <c r="A3410" s="1" t="s">
-        <v>12967</v>
+        <v>12987</v>
       </c>
       <c r="B3410" s="2" t="s">
-        <v>12967</v>
+        <v>12987</v>
       </c>
       <c r="C3410" s="7"/>
       <c r="D3410" s="7"/>
@@ -96598,10 +96889,10 @@
     </row>
     <row r="3411">
       <c r="A3411" s="1" t="s">
-        <v>12968</v>
+        <v>12988</v>
       </c>
       <c r="B3411" s="2" t="s">
-        <v>12968</v>
+        <v>12988</v>
       </c>
       <c r="C3411" s="7"/>
       <c r="D3411" s="7"/>
@@ -96609,10 +96900,10 @@
     </row>
     <row r="3412">
       <c r="A3412" s="1" t="s">
-        <v>12969</v>
+        <v>12989</v>
       </c>
       <c r="B3412" s="2" t="s">
-        <v>12969</v>
+        <v>12989</v>
       </c>
       <c r="C3412" s="7"/>
       <c r="D3412" s="7"/>
@@ -96620,10 +96911,10 @@
     </row>
     <row r="3413">
       <c r="A3413" s="1" t="s">
-        <v>12970</v>
+        <v>12990</v>
       </c>
       <c r="B3413" s="2" t="s">
-        <v>12970</v>
+        <v>12990</v>
       </c>
       <c r="C3413" s="7"/>
       <c r="D3413" s="7"/>
@@ -96631,10 +96922,10 @@
     </row>
     <row r="3414">
       <c r="A3414" s="1" t="s">
-        <v>12971</v>
+        <v>12991</v>
       </c>
       <c r="B3414" s="2" t="s">
-        <v>12971</v>
+        <v>12991</v>
       </c>
       <c r="C3414" s="7"/>
       <c r="D3414" s="7"/>
@@ -96642,10 +96933,10 @@
     </row>
     <row r="3415">
       <c r="A3415" s="1" t="s">
-        <v>12972</v>
+        <v>12992</v>
       </c>
       <c r="B3415" s="2" t="s">
-        <v>12972</v>
+        <v>12992</v>
       </c>
       <c r="C3415" s="7"/>
       <c r="D3415" s="7"/>
@@ -96653,10 +96944,10 @@
     </row>
     <row r="3416">
       <c r="A3416" s="1" t="s">
-        <v>12973</v>
+        <v>12993</v>
       </c>
       <c r="B3416" s="2" t="s">
-        <v>12973</v>
+        <v>12993</v>
       </c>
       <c r="C3416" s="7"/>
       <c r="D3416" s="7"/>
@@ -96664,10 +96955,10 @@
     </row>
     <row r="3417">
       <c r="A3417" s="1" t="s">
-        <v>12974</v>
+        <v>12994</v>
       </c>
       <c r="B3417" s="2" t="s">
-        <v>12974</v>
+        <v>12994</v>
       </c>
       <c r="C3417" s="7"/>
       <c r="D3417" s="7"/>
@@ -96675,10 +96966,10 @@
     </row>
     <row r="3418">
       <c r="A3418" s="1" t="s">
-        <v>12975</v>
+        <v>12995</v>
       </c>
       <c r="B3418" s="2" t="s">
-        <v>12975</v>
+        <v>12995</v>
       </c>
       <c r="C3418" s="7"/>
       <c r="D3418" s="7"/>
@@ -96686,10 +96977,10 @@
     </row>
     <row r="3419">
       <c r="A3419" s="1" t="s">
-        <v>12976</v>
+        <v>12996</v>
       </c>
       <c r="B3419" s="2" t="s">
-        <v>12976</v>
+        <v>12996</v>
       </c>
       <c r="C3419" s="7"/>
       <c r="D3419" s="7"/>
@@ -96697,10 +96988,10 @@
     </row>
     <row r="3420">
       <c r="A3420" s="1" t="s">
-        <v>12977</v>
+        <v>12997</v>
       </c>
       <c r="B3420" s="2" t="s">
-        <v>12977</v>
+        <v>12997</v>
       </c>
       <c r="C3420" s="7"/>
       <c r="D3420" s="7"/>
@@ -96708,10 +96999,10 @@
     </row>
     <row r="3421">
       <c r="A3421" s="1" t="s">
-        <v>1488</v>
+        <v>12998</v>
       </c>
       <c r="B3421" s="2" t="s">
-        <v>1488</v>
+        <v>12998</v>
       </c>
       <c r="C3421" s="7"/>
       <c r="D3421" s="7"/>
@@ -96719,10 +97010,10 @@
     </row>
     <row r="3422">
       <c r="A3422" s="1" t="s">
-        <v>12978</v>
+        <v>12999</v>
       </c>
       <c r="B3422" s="2" t="s">
-        <v>12978</v>
+        <v>12999</v>
       </c>
       <c r="C3422" s="7"/>
       <c r="D3422" s="7"/>
@@ -96730,10 +97021,10 @@
     </row>
     <row r="3423">
       <c r="A3423" s="1" t="s">
-        <v>12979</v>
+        <v>12998</v>
       </c>
       <c r="B3423" s="2" t="s">
-        <v>12979</v>
+        <v>12998</v>
       </c>
       <c r="C3423" s="7"/>
       <c r="D3423" s="7"/>
@@ -96741,10 +97032,10 @@
     </row>
     <row r="3424">
       <c r="A3424" s="1" t="s">
-        <v>12980</v>
+        <v>13000</v>
       </c>
       <c r="B3424" s="2" t="s">
-        <v>12980</v>
+        <v>13000</v>
       </c>
       <c r="C3424" s="7"/>
       <c r="D3424" s="7"/>
@@ -96752,10 +97043,10 @@
     </row>
     <row r="3425">
       <c r="A3425" s="1" t="s">
-        <v>12981</v>
+        <v>13001</v>
       </c>
       <c r="B3425" s="2" t="s">
-        <v>12981</v>
+        <v>13001</v>
       </c>
       <c r="C3425" s="7"/>
       <c r="D3425" s="7"/>
@@ -96763,10 +97054,10 @@
     </row>
     <row r="3426">
       <c r="A3426" s="1" t="s">
-        <v>12982</v>
+        <v>13002</v>
       </c>
       <c r="B3426" s="2" t="s">
-        <v>12982</v>
+        <v>13002</v>
       </c>
       <c r="C3426" s="7"/>
       <c r="D3426" s="7"/>
@@ -96774,10 +97065,10 @@
     </row>
     <row r="3427">
       <c r="A3427" s="1" t="s">
-        <v>12983</v>
+        <v>13003</v>
       </c>
       <c r="B3427" s="2" t="s">
-        <v>12983</v>
+        <v>13003</v>
       </c>
       <c r="C3427" s="7"/>
       <c r="D3427" s="7"/>
@@ -96785,10 +97076,10 @@
     </row>
     <row r="3428">
       <c r="A3428" s="1" t="s">
-        <v>12984</v>
+        <v>13004</v>
       </c>
       <c r="B3428" s="2" t="s">
-        <v>12984</v>
+        <v>13004</v>
       </c>
       <c r="C3428" s="7"/>
       <c r="D3428" s="7"/>
@@ -96796,10 +97087,10 @@
     </row>
     <row r="3429">
       <c r="A3429" s="1" t="s">
-        <v>12985</v>
+        <v>13005</v>
       </c>
       <c r="B3429" s="2" t="s">
-        <v>12985</v>
+        <v>13005</v>
       </c>
       <c r="C3429" s="7"/>
       <c r="D3429" s="7"/>
@@ -96807,10 +97098,10 @@
     </row>
     <row r="3430">
       <c r="A3430" s="1" t="s">
-        <v>12986</v>
+        <v>13006</v>
       </c>
       <c r="B3430" s="2" t="s">
-        <v>12986</v>
+        <v>13006</v>
       </c>
       <c r="C3430" s="7"/>
       <c r="D3430" s="7"/>
@@ -96818,10 +97109,10 @@
     </row>
     <row r="3431">
       <c r="A3431" s="1" t="s">
-        <v>12987</v>
+        <v>13007</v>
       </c>
       <c r="B3431" s="2" t="s">
-        <v>12987</v>
+        <v>13007</v>
       </c>
       <c r="C3431" s="7"/>
       <c r="D3431" s="7"/>
@@ -96829,10 +97120,10 @@
     </row>
     <row r="3432">
       <c r="A3432" s="1" t="s">
-        <v>12988</v>
+        <v>13008</v>
       </c>
       <c r="B3432" s="2" t="s">
-        <v>12988</v>
+        <v>13008</v>
       </c>
       <c r="C3432" s="7"/>
       <c r="D3432" s="7"/>
@@ -96840,10 +97131,10 @@
     </row>
     <row r="3433">
       <c r="A3433" s="1" t="s">
-        <v>12989</v>
+        <v>9632</v>
       </c>
       <c r="B3433" s="2" t="s">
-        <v>12989</v>
+        <v>9632</v>
       </c>
       <c r="C3433" s="7"/>
       <c r="D3433" s="7"/>
@@ -96851,10 +97142,10 @@
     </row>
     <row r="3434">
       <c r="A3434" s="1" t="s">
-        <v>12990</v>
+        <v>13009</v>
       </c>
       <c r="B3434" s="2" t="s">
-        <v>12990</v>
+        <v>13009</v>
       </c>
       <c r="C3434" s="7"/>
       <c r="D3434" s="7"/>
@@ -96862,10 +97153,10 @@
     </row>
     <row r="3435">
       <c r="A3435" s="1" t="s">
-        <v>12991</v>
+        <v>13010</v>
       </c>
       <c r="B3435" s="2" t="s">
-        <v>12991</v>
+        <v>13010</v>
       </c>
       <c r="C3435" s="7"/>
       <c r="D3435" s="7"/>
@@ -96873,10 +97164,10 @@
     </row>
     <row r="3436">
       <c r="A3436" s="1" t="s">
-        <v>12992</v>
+        <v>13011</v>
       </c>
       <c r="B3436" s="2" t="s">
-        <v>12992</v>
+        <v>13011</v>
       </c>
       <c r="C3436" s="7"/>
       <c r="D3436" s="7"/>
@@ -96884,10 +97175,10 @@
     </row>
     <row r="3437">
       <c r="A3437" s="1" t="s">
-        <v>12993</v>
+        <v>13012</v>
       </c>
       <c r="B3437" s="2" t="s">
-        <v>12993</v>
+        <v>13012</v>
       </c>
       <c r="C3437" s="7"/>
       <c r="D3437" s="7"/>
@@ -96895,10 +97186,10 @@
     </row>
     <row r="3438">
       <c r="A3438" s="1" t="s">
-        <v>12994</v>
+        <v>13013</v>
       </c>
       <c r="B3438" s="2" t="s">
-        <v>12994</v>
+        <v>13013</v>
       </c>
       <c r="C3438" s="7"/>
       <c r="D3438" s="7"/>
@@ -96906,10 +97197,10 @@
     </row>
     <row r="3439">
       <c r="A3439" s="1" t="s">
-        <v>12995</v>
+        <v>13014</v>
       </c>
       <c r="B3439" s="2" t="s">
-        <v>12995</v>
+        <v>13014</v>
       </c>
       <c r="C3439" s="7"/>
       <c r="D3439" s="7"/>
@@ -96917,10 +97208,10 @@
     </row>
     <row r="3440">
       <c r="A3440" s="1" t="s">
-        <v>12996</v>
+        <v>13015</v>
       </c>
       <c r="B3440" s="2" t="s">
-        <v>12996</v>
+        <v>13015</v>
       </c>
       <c r="C3440" s="7"/>
       <c r="D3440" s="7"/>
@@ -96928,10 +97219,10 @@
     </row>
     <row r="3441">
       <c r="A3441" s="1" t="s">
-        <v>12997</v>
+        <v>13016</v>
       </c>
       <c r="B3441" s="2" t="s">
-        <v>12997</v>
+        <v>13016</v>
       </c>
       <c r="C3441" s="7"/>
       <c r="D3441" s="7"/>
@@ -96939,10 +97230,10 @@
     </row>
     <row r="3442">
       <c r="A3442" s="1" t="s">
-        <v>12998</v>
+        <v>13017</v>
       </c>
       <c r="B3442" s="2" t="s">
-        <v>12998</v>
+        <v>13017</v>
       </c>
       <c r="C3442" s="7"/>
       <c r="D3442" s="7"/>
@@ -96950,10 +97241,10 @@
     </row>
     <row r="3443">
       <c r="A3443" s="1" t="s">
-        <v>12999</v>
+        <v>13018</v>
       </c>
       <c r="B3443" s="2" t="s">
-        <v>12999</v>
+        <v>13018</v>
       </c>
       <c r="C3443" s="7"/>
       <c r="D3443" s="7"/>
@@ -96961,10 +97252,10 @@
     </row>
     <row r="3444">
       <c r="A3444" s="1" t="s">
-        <v>13000</v>
+        <v>13019</v>
       </c>
       <c r="B3444" s="2" t="s">
-        <v>13000</v>
+        <v>13019</v>
       </c>
       <c r="C3444" s="7"/>
       <c r="D3444" s="7"/>
@@ -96972,10 +97263,10 @@
     </row>
     <row r="3445">
       <c r="A3445" s="1" t="s">
-        <v>13001</v>
+        <v>13020</v>
       </c>
       <c r="B3445" s="2" t="s">
-        <v>13001</v>
+        <v>13020</v>
       </c>
       <c r="C3445" s="7"/>
       <c r="D3445" s="7"/>
@@ -96983,10 +97274,10 @@
     </row>
     <row r="3446">
       <c r="A3446" s="1" t="s">
-        <v>13002</v>
+        <v>13021</v>
       </c>
       <c r="B3446" s="2" t="s">
-        <v>13002</v>
+        <v>13021</v>
       </c>
       <c r="C3446" s="7"/>
       <c r="D3446" s="7"/>
@@ -96994,10 +97285,10 @@
     </row>
     <row r="3447">
       <c r="A3447" s="1" t="s">
-        <v>13003</v>
+        <v>13022</v>
       </c>
       <c r="B3447" s="2" t="s">
-        <v>13003</v>
+        <v>13022</v>
       </c>
       <c r="C3447" s="7"/>
       <c r="D3447" s="7"/>
@@ -97005,10 +97296,10 @@
     </row>
     <row r="3448">
       <c r="A3448" s="1" t="s">
-        <v>13004</v>
+        <v>13023</v>
       </c>
       <c r="B3448" s="2" t="s">
-        <v>13004</v>
+        <v>13023</v>
       </c>
       <c r="C3448" s="7"/>
       <c r="D3448" s="7"/>
@@ -97016,10 +97307,10 @@
     </row>
     <row r="3449">
       <c r="A3449" s="1" t="s">
-        <v>13005</v>
+        <v>13024</v>
       </c>
       <c r="B3449" s="2" t="s">
-        <v>13005</v>
+        <v>13024</v>
       </c>
       <c r="C3449" s="7"/>
       <c r="D3449" s="7"/>
@@ -97027,10 +97318,10 @@
     </row>
     <row r="3450">
       <c r="A3450" s="1" t="s">
-        <v>13006</v>
+        <v>13025</v>
       </c>
       <c r="B3450" s="2" t="s">
-        <v>13006</v>
+        <v>13025</v>
       </c>
       <c r="C3450" s="7"/>
       <c r="D3450" s="7"/>
@@ -97038,10 +97329,10 @@
     </row>
     <row r="3451">
       <c r="A3451" s="1" t="s">
-        <v>13007</v>
+        <v>1488</v>
       </c>
       <c r="B3451" s="2" t="s">
-        <v>13007</v>
+        <v>1488</v>
       </c>
       <c r="C3451" s="7"/>
       <c r="D3451" s="7"/>
@@ -97049,10 +97340,10 @@
     </row>
     <row r="3452">
       <c r="A3452" s="1" t="s">
-        <v>13008</v>
+        <v>13026</v>
       </c>
       <c r="B3452" s="2" t="s">
-        <v>13008</v>
+        <v>13026</v>
       </c>
       <c r="C3452" s="7"/>
       <c r="D3452" s="7"/>
@@ -97060,10 +97351,10 @@
     </row>
     <row r="3453">
       <c r="A3453" s="1" t="s">
-        <v>13009</v>
+        <v>13027</v>
       </c>
       <c r="B3453" s="2" t="s">
-        <v>13009</v>
+        <v>13027</v>
       </c>
       <c r="C3453" s="7"/>
       <c r="D3453" s="7"/>
@@ -97071,10 +97362,10 @@
     </row>
     <row r="3454">
       <c r="A3454" s="1" t="s">
-        <v>13010</v>
+        <v>13028</v>
       </c>
       <c r="B3454" s="2" t="s">
-        <v>13010</v>
+        <v>13028</v>
       </c>
       <c r="C3454" s="7"/>
       <c r="D3454" s="7"/>
@@ -97082,10 +97373,10 @@
     </row>
     <row r="3455">
       <c r="A3455" s="1" t="s">
-        <v>13011</v>
+        <v>13029</v>
       </c>
       <c r="B3455" s="2" t="s">
-        <v>13011</v>
+        <v>13029</v>
       </c>
       <c r="C3455" s="7"/>
       <c r="D3455" s="7"/>
@@ -97093,10 +97384,10 @@
     </row>
     <row r="3456">
       <c r="A3456" s="1" t="s">
-        <v>13012</v>
+        <v>13030</v>
       </c>
       <c r="B3456" s="2" t="s">
-        <v>13012</v>
+        <v>13030</v>
       </c>
       <c r="C3456" s="7"/>
       <c r="D3456" s="7"/>
@@ -97104,10 +97395,10 @@
     </row>
     <row r="3457">
       <c r="A3457" s="1" t="s">
-        <v>13013</v>
+        <v>13031</v>
       </c>
       <c r="B3457" s="2" t="s">
-        <v>13013</v>
+        <v>13031</v>
       </c>
       <c r="C3457" s="7"/>
       <c r="D3457" s="7"/>
@@ -97115,10 +97406,10 @@
     </row>
     <row r="3458">
       <c r="A3458" s="1" t="s">
-        <v>13014</v>
+        <v>13032</v>
       </c>
       <c r="B3458" s="2" t="s">
-        <v>13014</v>
+        <v>13032</v>
       </c>
       <c r="C3458" s="7"/>
       <c r="D3458" s="7"/>
@@ -97126,10 +97417,10 @@
     </row>
     <row r="3459">
       <c r="A3459" s="1" t="s">
-        <v>13015</v>
+        <v>13033</v>
       </c>
       <c r="B3459" s="2" t="s">
-        <v>13015</v>
+        <v>13033</v>
       </c>
       <c r="C3459" s="7"/>
       <c r="D3459" s="7"/>
@@ -97137,10 +97428,10 @@
     </row>
     <row r="3460">
       <c r="A3460" s="1" t="s">
-        <v>13016</v>
+        <v>13034</v>
       </c>
       <c r="B3460" s="2" t="s">
-        <v>13016</v>
+        <v>13034</v>
       </c>
       <c r="C3460" s="7"/>
       <c r="D3460" s="7"/>
@@ -97148,10 +97439,10 @@
     </row>
     <row r="3461">
       <c r="A3461" s="1" t="s">
-        <v>13017</v>
+        <v>13035</v>
       </c>
       <c r="B3461" s="2" t="s">
-        <v>13017</v>
+        <v>13035</v>
       </c>
       <c r="C3461" s="7"/>
       <c r="D3461" s="7"/>
@@ -97159,10 +97450,10 @@
     </row>
     <row r="3462">
       <c r="A3462" s="1" t="s">
-        <v>13018</v>
+        <v>13036</v>
       </c>
       <c r="B3462" s="2" t="s">
-        <v>13018</v>
+        <v>13036</v>
       </c>
       <c r="C3462" s="7"/>
       <c r="D3462" s="7"/>
@@ -97170,10 +97461,10 @@
     </row>
     <row r="3463">
       <c r="A3463" s="1" t="s">
-        <v>13019</v>
+        <v>13037</v>
       </c>
       <c r="B3463" s="2" t="s">
-        <v>13019</v>
+        <v>13037</v>
       </c>
       <c r="C3463" s="7"/>
       <c r="D3463" s="7"/>
@@ -97181,10 +97472,10 @@
     </row>
     <row r="3464">
       <c r="A3464" s="1" t="s">
-        <v>5137</v>
+        <v>13038</v>
       </c>
       <c r="B3464" s="2" t="s">
-        <v>5137</v>
+        <v>13038</v>
       </c>
       <c r="C3464" s="7"/>
       <c r="D3464" s="7"/>
@@ -97192,10 +97483,10 @@
     </row>
     <row r="3465">
       <c r="A3465" s="1" t="s">
-        <v>13020</v>
+        <v>13039</v>
       </c>
       <c r="B3465" s="2" t="s">
-        <v>13020</v>
+        <v>13039</v>
       </c>
       <c r="C3465" s="7"/>
       <c r="D3465" s="7"/>
@@ -97203,10 +97494,10 @@
     </row>
     <row r="3466">
       <c r="A3466" s="1" t="s">
-        <v>13021</v>
+        <v>13040</v>
       </c>
       <c r="B3466" s="2" t="s">
-        <v>13021</v>
+        <v>13040</v>
       </c>
       <c r="C3466" s="7"/>
       <c r="D3466" s="7"/>
@@ -97214,10 +97505,10 @@
     </row>
     <row r="3467">
       <c r="A3467" s="1" t="s">
-        <v>13022</v>
+        <v>13041</v>
       </c>
       <c r="B3467" s="2" t="s">
-        <v>13022</v>
+        <v>13041</v>
       </c>
       <c r="C3467" s="7"/>
       <c r="D3467" s="7"/>
@@ -97225,473 +97516,858 @@
     </row>
     <row r="3468">
       <c r="A3468" s="1" t="s">
-        <v>13023</v>
+        <v>13042</v>
       </c>
       <c r="B3468" s="2" t="s">
-        <v>13023</v>
+        <v>13042</v>
       </c>
       <c r="C3468" s="7"/>
       <c r="D3468" s="7"/>
       <c r="E3468" s="63"/>
     </row>
     <row r="3469">
-      <c r="B3469" s="7"/>
+      <c r="A3469" s="1" t="s">
+        <v>13043</v>
+      </c>
+      <c r="B3469" s="2" t="s">
+        <v>13043</v>
+      </c>
       <c r="C3469" s="7"/>
       <c r="D3469" s="7"/>
       <c r="E3469" s="63"/>
     </row>
     <row r="3470">
-      <c r="B3470" s="7"/>
+      <c r="A3470" s="1" t="s">
+        <v>13044</v>
+      </c>
+      <c r="B3470" s="2" t="s">
+        <v>13044</v>
+      </c>
       <c r="C3470" s="7"/>
       <c r="D3470" s="7"/>
       <c r="E3470" s="63"/>
     </row>
     <row r="3471">
-      <c r="B3471" s="7"/>
+      <c r="A3471" s="1" t="s">
+        <v>13045</v>
+      </c>
+      <c r="B3471" s="2" t="s">
+        <v>13045</v>
+      </c>
       <c r="C3471" s="7"/>
       <c r="D3471" s="7"/>
       <c r="E3471" s="63"/>
     </row>
     <row r="3472">
-      <c r="B3472" s="7"/>
+      <c r="A3472" s="1" t="s">
+        <v>13046</v>
+      </c>
+      <c r="B3472" s="2" t="s">
+        <v>13046</v>
+      </c>
       <c r="C3472" s="7"/>
       <c r="D3472" s="7"/>
       <c r="E3472" s="63"/>
     </row>
     <row r="3473">
-      <c r="B3473" s="7"/>
+      <c r="A3473" s="1" t="s">
+        <v>13047</v>
+      </c>
+      <c r="B3473" s="2" t="s">
+        <v>13047</v>
+      </c>
       <c r="C3473" s="7"/>
       <c r="D3473" s="7"/>
       <c r="E3473" s="63"/>
     </row>
     <row r="3474">
-      <c r="B3474" s="7"/>
+      <c r="A3474" s="1" t="s">
+        <v>13048</v>
+      </c>
+      <c r="B3474" s="2" t="s">
+        <v>13048</v>
+      </c>
       <c r="C3474" s="7"/>
       <c r="D3474" s="7"/>
       <c r="E3474" s="63"/>
     </row>
     <row r="3475">
-      <c r="B3475" s="7"/>
+      <c r="A3475" s="1" t="s">
+        <v>13049</v>
+      </c>
+      <c r="B3475" s="2" t="s">
+        <v>13049</v>
+      </c>
       <c r="C3475" s="7"/>
       <c r="D3475" s="7"/>
       <c r="E3475" s="63"/>
     </row>
     <row r="3476">
-      <c r="B3476" s="7"/>
+      <c r="A3476" s="1" t="s">
+        <v>13050</v>
+      </c>
+      <c r="B3476" s="2" t="s">
+        <v>13050</v>
+      </c>
       <c r="C3476" s="7"/>
       <c r="D3476" s="7"/>
       <c r="E3476" s="63"/>
     </row>
     <row r="3477">
-      <c r="B3477" s="7"/>
+      <c r="A3477" s="1" t="s">
+        <v>13051</v>
+      </c>
+      <c r="B3477" s="2" t="s">
+        <v>13051</v>
+      </c>
       <c r="C3477" s="7"/>
       <c r="D3477" s="7"/>
       <c r="E3477" s="63"/>
     </row>
     <row r="3478">
-      <c r="B3478" s="7"/>
+      <c r="A3478" s="1" t="s">
+        <v>13052</v>
+      </c>
+      <c r="B3478" s="2" t="s">
+        <v>13052</v>
+      </c>
       <c r="C3478" s="7"/>
       <c r="D3478" s="7"/>
       <c r="E3478" s="63"/>
     </row>
     <row r="3479">
-      <c r="B3479" s="7"/>
+      <c r="A3479" s="1" t="s">
+        <v>13053</v>
+      </c>
+      <c r="B3479" s="2" t="s">
+        <v>13053</v>
+      </c>
       <c r="C3479" s="7"/>
       <c r="D3479" s="7"/>
       <c r="E3479" s="63"/>
     </row>
     <row r="3480">
-      <c r="B3480" s="7"/>
+      <c r="A3480" s="1" t="s">
+        <v>13054</v>
+      </c>
+      <c r="B3480" s="2" t="s">
+        <v>13054</v>
+      </c>
       <c r="C3480" s="7"/>
       <c r="D3480" s="7"/>
       <c r="E3480" s="63"/>
     </row>
     <row r="3481">
-      <c r="B3481" s="7"/>
+      <c r="A3481" s="1" t="s">
+        <v>13055</v>
+      </c>
+      <c r="B3481" s="2" t="s">
+        <v>13055</v>
+      </c>
       <c r="C3481" s="7"/>
       <c r="D3481" s="7"/>
       <c r="E3481" s="63"/>
     </row>
     <row r="3482">
-      <c r="B3482" s="7"/>
+      <c r="A3482" s="1" t="s">
+        <v>13056</v>
+      </c>
+      <c r="B3482" s="2" t="s">
+        <v>13056</v>
+      </c>
       <c r="C3482" s="7"/>
       <c r="D3482" s="7"/>
       <c r="E3482" s="63"/>
     </row>
     <row r="3483">
-      <c r="B3483" s="7"/>
+      <c r="A3483" s="1" t="s">
+        <v>13057</v>
+      </c>
+      <c r="B3483" s="2" t="s">
+        <v>13057</v>
+      </c>
       <c r="C3483" s="7"/>
       <c r="D3483" s="7"/>
       <c r="E3483" s="63"/>
     </row>
     <row r="3484">
-      <c r="B3484" s="7"/>
+      <c r="A3484" s="1" t="s">
+        <v>13058</v>
+      </c>
+      <c r="B3484" s="2" t="s">
+        <v>13058</v>
+      </c>
       <c r="C3484" s="7"/>
       <c r="D3484" s="7"/>
       <c r="E3484" s="63"/>
     </row>
     <row r="3485">
-      <c r="B3485" s="7"/>
+      <c r="A3485" s="1" t="s">
+        <v>13059</v>
+      </c>
+      <c r="B3485" s="2" t="s">
+        <v>13059</v>
+      </c>
       <c r="C3485" s="7"/>
       <c r="D3485" s="7"/>
       <c r="E3485" s="63"/>
     </row>
     <row r="3486">
-      <c r="B3486" s="7"/>
+      <c r="A3486" s="1" t="s">
+        <v>13060</v>
+      </c>
+      <c r="B3486" s="2" t="s">
+        <v>13060</v>
+      </c>
       <c r="C3486" s="7"/>
       <c r="D3486" s="7"/>
       <c r="E3486" s="63"/>
     </row>
     <row r="3487">
-      <c r="B3487" s="7"/>
+      <c r="A3487" s="1" t="s">
+        <v>13061</v>
+      </c>
+      <c r="B3487" s="2" t="s">
+        <v>13061</v>
+      </c>
       <c r="C3487" s="7"/>
       <c r="D3487" s="7"/>
       <c r="E3487" s="63"/>
     </row>
     <row r="3488">
-      <c r="B3488" s="7"/>
+      <c r="A3488" s="1" t="s">
+        <v>13062</v>
+      </c>
+      <c r="B3488" s="2" t="s">
+        <v>13062</v>
+      </c>
       <c r="C3488" s="7"/>
       <c r="D3488" s="7"/>
       <c r="E3488" s="63"/>
     </row>
     <row r="3489">
-      <c r="B3489" s="7"/>
+      <c r="A3489" s="1" t="s">
+        <v>13063</v>
+      </c>
+      <c r="B3489" s="2" t="s">
+        <v>13063</v>
+      </c>
       <c r="C3489" s="7"/>
       <c r="D3489" s="7"/>
       <c r="E3489" s="63"/>
     </row>
     <row r="3490">
-      <c r="B3490" s="7"/>
+      <c r="A3490" s="1" t="s">
+        <v>13064</v>
+      </c>
+      <c r="B3490" s="2" t="s">
+        <v>13064</v>
+      </c>
       <c r="C3490" s="7"/>
       <c r="D3490" s="7"/>
       <c r="E3490" s="63"/>
     </row>
     <row r="3491">
-      <c r="B3491" s="7"/>
+      <c r="A3491" s="1" t="s">
+        <v>13065</v>
+      </c>
+      <c r="B3491" s="2" t="s">
+        <v>13065</v>
+      </c>
       <c r="C3491" s="7"/>
       <c r="D3491" s="7"/>
       <c r="E3491" s="63"/>
     </row>
     <row r="3492">
-      <c r="B3492" s="7"/>
+      <c r="A3492" s="1" t="s">
+        <v>12844</v>
+      </c>
+      <c r="B3492" s="2" t="s">
+        <v>12844</v>
+      </c>
       <c r="C3492" s="7"/>
       <c r="D3492" s="7"/>
       <c r="E3492" s="63"/>
     </row>
     <row r="3493">
-      <c r="B3493" s="7"/>
+      <c r="A3493" s="1" t="s">
+        <v>12846</v>
+      </c>
+      <c r="B3493" s="2" t="s">
+        <v>12846</v>
+      </c>
       <c r="C3493" s="7"/>
       <c r="D3493" s="7"/>
       <c r="E3493" s="63"/>
     </row>
     <row r="3494">
-      <c r="B3494" s="7"/>
+      <c r="A3494" s="1" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B3494" s="2" t="s">
+        <v>5137</v>
+      </c>
       <c r="C3494" s="7"/>
       <c r="D3494" s="7"/>
       <c r="E3494" s="63"/>
     </row>
     <row r="3495">
-      <c r="B3495" s="7"/>
+      <c r="A3495" s="1" t="s">
+        <v>13066</v>
+      </c>
+      <c r="B3495" s="2" t="s">
+        <v>13066</v>
+      </c>
       <c r="C3495" s="7"/>
       <c r="D3495" s="7"/>
       <c r="E3495" s="63"/>
     </row>
     <row r="3496">
-      <c r="B3496" s="7"/>
+      <c r="A3496" s="1" t="s">
+        <v>12850</v>
+      </c>
+      <c r="B3496" s="2" t="s">
+        <v>12850</v>
+      </c>
       <c r="C3496" s="7"/>
       <c r="D3496" s="7"/>
       <c r="E3496" s="63"/>
     </row>
     <row r="3497">
-      <c r="B3497" s="7"/>
+      <c r="A3497" s="1" t="s">
+        <v>13067</v>
+      </c>
+      <c r="B3497" s="2" t="s">
+        <v>13067</v>
+      </c>
       <c r="C3497" s="7"/>
       <c r="D3497" s="7"/>
       <c r="E3497" s="63"/>
     </row>
     <row r="3498">
-      <c r="B3498" s="7"/>
+      <c r="A3498" s="1" t="s">
+        <v>13068</v>
+      </c>
+      <c r="B3498" s="2" t="s">
+        <v>13068</v>
+      </c>
       <c r="C3498" s="7"/>
       <c r="D3498" s="7"/>
       <c r="E3498" s="63"/>
     </row>
     <row r="3499">
-      <c r="B3499" s="7"/>
+      <c r="A3499" s="1" t="s">
+        <v>13069</v>
+      </c>
+      <c r="B3499" s="2" t="s">
+        <v>13069</v>
+      </c>
       <c r="C3499" s="7"/>
       <c r="D3499" s="7"/>
       <c r="E3499" s="63"/>
     </row>
     <row r="3500">
-      <c r="B3500" s="7"/>
+      <c r="A3500" s="1" t="s">
+        <v>13070</v>
+      </c>
+      <c r="B3500" s="2" t="s">
+        <v>13070</v>
+      </c>
       <c r="C3500" s="7"/>
       <c r="D3500" s="7"/>
       <c r="E3500" s="63"/>
     </row>
     <row r="3501">
-      <c r="B3501" s="7"/>
+      <c r="A3501" s="1" t="s">
+        <v>13071</v>
+      </c>
+      <c r="B3501" s="2" t="s">
+        <v>13071</v>
+      </c>
       <c r="C3501" s="7"/>
       <c r="D3501" s="7"/>
       <c r="E3501" s="63"/>
     </row>
     <row r="3502">
-      <c r="B3502" s="7"/>
+      <c r="A3502" s="1" t="s">
+        <v>13072</v>
+      </c>
+      <c r="B3502" s="2" t="s">
+        <v>13072</v>
+      </c>
       <c r="C3502" s="7"/>
       <c r="D3502" s="7"/>
       <c r="E3502" s="63"/>
     </row>
     <row r="3503">
-      <c r="B3503" s="7"/>
+      <c r="A3503" s="1" t="s">
+        <v>13073</v>
+      </c>
+      <c r="B3503" s="2" t="s">
+        <v>13073</v>
+      </c>
       <c r="C3503" s="7"/>
       <c r="D3503" s="7"/>
       <c r="E3503" s="63"/>
     </row>
     <row r="3504">
-      <c r="B3504" s="7"/>
+      <c r="A3504" s="1" t="s">
+        <v>13074</v>
+      </c>
+      <c r="B3504" s="2" t="s">
+        <v>13074</v>
+      </c>
       <c r="C3504" s="7"/>
       <c r="D3504" s="7"/>
       <c r="E3504" s="63"/>
     </row>
     <row r="3505">
-      <c r="B3505" s="7"/>
+      <c r="A3505" s="1" t="s">
+        <v>13075</v>
+      </c>
+      <c r="B3505" s="2" t="s">
+        <v>13075</v>
+      </c>
       <c r="C3505" s="7"/>
       <c r="D3505" s="7"/>
       <c r="E3505" s="63"/>
     </row>
     <row r="3506">
-      <c r="B3506" s="7"/>
+      <c r="A3506" s="1" t="s">
+        <v>13076</v>
+      </c>
+      <c r="B3506" s="2" t="s">
+        <v>13076</v>
+      </c>
       <c r="C3506" s="7"/>
       <c r="D3506" s="7"/>
       <c r="E3506" s="63"/>
     </row>
     <row r="3507">
-      <c r="B3507" s="7"/>
+      <c r="A3507" s="1" t="s">
+        <v>13077</v>
+      </c>
+      <c r="B3507" s="2" t="s">
+        <v>13077</v>
+      </c>
       <c r="C3507" s="7"/>
       <c r="D3507" s="7"/>
       <c r="E3507" s="63"/>
     </row>
     <row r="3508">
-      <c r="B3508" s="7"/>
+      <c r="A3508" s="1" t="s">
+        <v>13078</v>
+      </c>
+      <c r="B3508" s="2" t="s">
+        <v>13078</v>
+      </c>
       <c r="C3508" s="7"/>
       <c r="D3508" s="7"/>
       <c r="E3508" s="63"/>
     </row>
     <row r="3509">
-      <c r="B3509" s="7"/>
+      <c r="A3509" s="1" t="s">
+        <v>13079</v>
+      </c>
+      <c r="B3509" s="2" t="s">
+        <v>13079</v>
+      </c>
       <c r="C3509" s="7"/>
       <c r="D3509" s="7"/>
       <c r="E3509" s="63"/>
     </row>
     <row r="3510">
-      <c r="B3510" s="7"/>
+      <c r="A3510" s="1" t="s">
+        <v>13080</v>
+      </c>
+      <c r="B3510" s="2" t="s">
+        <v>13080</v>
+      </c>
       <c r="C3510" s="7"/>
       <c r="D3510" s="7"/>
       <c r="E3510" s="63"/>
     </row>
     <row r="3511">
-      <c r="B3511" s="7"/>
+      <c r="A3511" s="1" t="s">
+        <v>13081</v>
+      </c>
+      <c r="B3511" s="2" t="s">
+        <v>13081</v>
+      </c>
       <c r="C3511" s="7"/>
       <c r="D3511" s="7"/>
       <c r="E3511" s="63"/>
     </row>
     <row r="3512">
-      <c r="B3512" s="7"/>
+      <c r="A3512" s="1" t="s">
+        <v>13082</v>
+      </c>
+      <c r="B3512" s="2" t="s">
+        <v>13082</v>
+      </c>
       <c r="C3512" s="7"/>
       <c r="D3512" s="7"/>
       <c r="E3512" s="63"/>
     </row>
     <row r="3513">
-      <c r="B3513" s="7"/>
+      <c r="A3513" s="1" t="s">
+        <v>13083</v>
+      </c>
+      <c r="B3513" s="2" t="s">
+        <v>13083</v>
+      </c>
       <c r="C3513" s="7"/>
       <c r="D3513" s="7"/>
       <c r="E3513" s="63"/>
     </row>
     <row r="3514">
-      <c r="B3514" s="7"/>
+      <c r="A3514" s="1" t="s">
+        <v>13084</v>
+      </c>
+      <c r="B3514" s="2" t="s">
+        <v>13084</v>
+      </c>
       <c r="C3514" s="7"/>
       <c r="D3514" s="7"/>
       <c r="E3514" s="63"/>
     </row>
     <row r="3515">
-      <c r="B3515" s="7"/>
+      <c r="A3515" s="1" t="s">
+        <v>13085</v>
+      </c>
+      <c r="B3515" s="2" t="s">
+        <v>13085</v>
+      </c>
       <c r="C3515" s="7"/>
       <c r="D3515" s="7"/>
       <c r="E3515" s="63"/>
     </row>
     <row r="3516">
-      <c r="B3516" s="7"/>
+      <c r="A3516" s="1" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B3516" s="2" t="s">
+        <v>4752</v>
+      </c>
       <c r="C3516" s="7"/>
       <c r="D3516" s="7"/>
       <c r="E3516" s="63"/>
     </row>
     <row r="3517">
-      <c r="B3517" s="7"/>
+      <c r="A3517" s="1" t="s">
+        <v>13086</v>
+      </c>
+      <c r="B3517" s="2" t="s">
+        <v>13086</v>
+      </c>
       <c r="C3517" s="7"/>
       <c r="D3517" s="7"/>
       <c r="E3517" s="63"/>
     </row>
     <row r="3518">
-      <c r="B3518" s="7"/>
+      <c r="A3518" s="1" t="s">
+        <v>13087</v>
+      </c>
+      <c r="B3518" s="2" t="s">
+        <v>13087</v>
+      </c>
       <c r="C3518" s="7"/>
       <c r="D3518" s="7"/>
       <c r="E3518" s="63"/>
     </row>
     <row r="3519">
-      <c r="B3519" s="7"/>
+      <c r="A3519" s="1" t="s">
+        <v>13088</v>
+      </c>
+      <c r="B3519" s="2" t="s">
+        <v>13088</v>
+      </c>
       <c r="C3519" s="7"/>
       <c r="D3519" s="7"/>
       <c r="E3519" s="63"/>
     </row>
     <row r="3520">
-      <c r="B3520" s="7"/>
+      <c r="A3520" s="1" t="s">
+        <v>13089</v>
+      </c>
+      <c r="B3520" s="2" t="s">
+        <v>13089</v>
+      </c>
       <c r="C3520" s="7"/>
       <c r="D3520" s="7"/>
       <c r="E3520" s="63"/>
     </row>
     <row r="3521">
-      <c r="B3521" s="7"/>
+      <c r="A3521" s="1" t="s">
+        <v>13090</v>
+      </c>
+      <c r="B3521" s="2" t="s">
+        <v>13090</v>
+      </c>
       <c r="C3521" s="7"/>
       <c r="D3521" s="7"/>
       <c r="E3521" s="63"/>
     </row>
     <row r="3522">
-      <c r="B3522" s="7"/>
+      <c r="A3522" s="1" t="s">
+        <v>13091</v>
+      </c>
+      <c r="B3522" s="2" t="s">
+        <v>13091</v>
+      </c>
       <c r="C3522" s="7"/>
       <c r="D3522" s="7"/>
       <c r="E3522" s="63"/>
     </row>
     <row r="3523">
-      <c r="B3523" s="7"/>
+      <c r="A3523" s="1" t="s">
+        <v>13092</v>
+      </c>
+      <c r="B3523" s="2" t="s">
+        <v>13092</v>
+      </c>
       <c r="C3523" s="7"/>
       <c r="D3523" s="7"/>
       <c r="E3523" s="63"/>
     </row>
     <row r="3524">
-      <c r="B3524" s="7"/>
+      <c r="A3524" s="1" t="s">
+        <v>13093</v>
+      </c>
+      <c r="B3524" s="2" t="s">
+        <v>13093</v>
+      </c>
       <c r="C3524" s="7"/>
       <c r="D3524" s="7"/>
       <c r="E3524" s="63"/>
     </row>
     <row r="3525">
-      <c r="B3525" s="7"/>
+      <c r="A3525" s="1" t="s">
+        <v>13094</v>
+      </c>
+      <c r="B3525" s="2" t="s">
+        <v>13094</v>
+      </c>
       <c r="C3525" s="7"/>
       <c r="D3525" s="7"/>
       <c r="E3525" s="63"/>
     </row>
     <row r="3526">
-      <c r="B3526" s="7"/>
+      <c r="A3526" s="1" t="s">
+        <v>13095</v>
+      </c>
+      <c r="B3526" s="2" t="s">
+        <v>13095</v>
+      </c>
       <c r="C3526" s="7"/>
       <c r="D3526" s="7"/>
       <c r="E3526" s="63"/>
     </row>
     <row r="3527">
-      <c r="B3527" s="7"/>
+      <c r="A3527" s="1" t="s">
+        <v>13096</v>
+      </c>
+      <c r="B3527" s="2" t="s">
+        <v>13096</v>
+      </c>
       <c r="C3527" s="7"/>
       <c r="D3527" s="7"/>
       <c r="E3527" s="63"/>
     </row>
     <row r="3528">
-      <c r="B3528" s="7"/>
+      <c r="A3528" s="1" t="s">
+        <v>13097</v>
+      </c>
+      <c r="B3528" s="2" t="s">
+        <v>13097</v>
+      </c>
       <c r="C3528" s="7"/>
       <c r="D3528" s="7"/>
       <c r="E3528" s="63"/>
     </row>
     <row r="3529">
-      <c r="B3529" s="7"/>
+      <c r="A3529" s="1" t="s">
+        <v>13098</v>
+      </c>
+      <c r="B3529" s="2" t="s">
+        <v>13098</v>
+      </c>
       <c r="C3529" s="7"/>
       <c r="D3529" s="7"/>
       <c r="E3529" s="63"/>
     </row>
     <row r="3530">
-      <c r="B3530" s="7"/>
+      <c r="A3530" s="1" t="s">
+        <v>13099</v>
+      </c>
+      <c r="B3530" s="2" t="s">
+        <v>13099</v>
+      </c>
       <c r="C3530" s="7"/>
       <c r="D3530" s="7"/>
       <c r="E3530" s="63"/>
     </row>
     <row r="3531">
-      <c r="B3531" s="7"/>
+      <c r="A3531" s="1" t="s">
+        <v>13100</v>
+      </c>
+      <c r="B3531" s="2" t="s">
+        <v>13100</v>
+      </c>
       <c r="C3531" s="7"/>
       <c r="D3531" s="7"/>
       <c r="E3531" s="63"/>
     </row>
     <row r="3532">
-      <c r="B3532" s="7"/>
+      <c r="A3532" s="1" t="s">
+        <v>13101</v>
+      </c>
+      <c r="B3532" s="2" t="s">
+        <v>13101</v>
+      </c>
       <c r="C3532" s="7"/>
       <c r="D3532" s="7"/>
       <c r="E3532" s="63"/>
     </row>
     <row r="3533">
-      <c r="B3533" s="7"/>
+      <c r="A3533" s="1" t="s">
+        <v>13102</v>
+      </c>
+      <c r="B3533" s="2" t="s">
+        <v>13102</v>
+      </c>
       <c r="C3533" s="7"/>
       <c r="D3533" s="7"/>
       <c r="E3533" s="63"/>
     </row>
     <row r="3534">
-      <c r="B3534" s="7"/>
+      <c r="A3534" s="1" t="s">
+        <v>13103</v>
+      </c>
+      <c r="B3534" s="2" t="s">
+        <v>13103</v>
+      </c>
       <c r="C3534" s="7"/>
       <c r="D3534" s="7"/>
       <c r="E3534" s="63"/>
     </row>
     <row r="3535">
-      <c r="B3535" s="7"/>
+      <c r="A3535" s="1" t="s">
+        <v>13104</v>
+      </c>
+      <c r="B3535" s="2" t="s">
+        <v>13104</v>
+      </c>
       <c r="C3535" s="7"/>
       <c r="D3535" s="7"/>
       <c r="E3535" s="63"/>
     </row>
     <row r="3536">
-      <c r="B3536" s="7"/>
+      <c r="A3536" s="1" t="s">
+        <v>13105</v>
+      </c>
+      <c r="B3536" s="2" t="s">
+        <v>13105</v>
+      </c>
       <c r="C3536" s="7"/>
       <c r="D3536" s="7"/>
       <c r="E3536" s="63"/>
     </row>
     <row r="3537">
-      <c r="B3537" s="7"/>
+      <c r="A3537" s="1" t="s">
+        <v>13106</v>
+      </c>
+      <c r="B3537" s="2" t="s">
+        <v>13106</v>
+      </c>
       <c r="C3537" s="7"/>
       <c r="D3537" s="7"/>
       <c r="E3537" s="63"/>
     </row>
     <row r="3538">
-      <c r="B3538" s="7"/>
+      <c r="A3538" s="1" t="s">
+        <v>13107</v>
+      </c>
+      <c r="B3538" s="2" t="s">
+        <v>13107</v>
+      </c>
       <c r="C3538" s="7"/>
       <c r="D3538" s="7"/>
       <c r="E3538" s="63"/>
     </row>
     <row r="3539">
-      <c r="B3539" s="7"/>
+      <c r="A3539" s="1" t="s">
+        <v>13108</v>
+      </c>
+      <c r="B3539" s="2" t="s">
+        <v>13108</v>
+      </c>
       <c r="C3539" s="7"/>
       <c r="D3539" s="7"/>
       <c r="E3539" s="63"/>
     </row>
     <row r="3540">
-      <c r="B3540" s="7"/>
+      <c r="A3540" s="1" t="s">
+        <v>13109</v>
+      </c>
+      <c r="B3540" s="2" t="s">
+        <v>13109</v>
+      </c>
       <c r="C3540" s="7"/>
       <c r="D3540" s="7"/>
       <c r="E3540" s="63"/>
     </row>
     <row r="3541">
-      <c r="B3541" s="7"/>
+      <c r="A3541" s="1" t="s">
+        <v>13110</v>
+      </c>
+      <c r="B3541" s="2" t="s">
+        <v>13110</v>
+      </c>
       <c r="C3541" s="7"/>
       <c r="D3541" s="7"/>
       <c r="E3541" s="63"/>
     </row>
     <row r="3542">
-      <c r="B3542" s="7"/>
+      <c r="A3542" s="1" t="s">
+        <v>13111</v>
+      </c>
+      <c r="B3542" s="2" t="s">
+        <v>13111</v>
+      </c>
       <c r="C3542" s="7"/>
       <c r="D3542" s="7"/>
       <c r="E3542" s="63"/>
     </row>
     <row r="3543">
-      <c r="B3543" s="7"/>
+      <c r="A3543" s="1" t="s">
+        <v>13112</v>
+      </c>
+      <c r="B3543" s="2" t="s">
+        <v>13112</v>
+      </c>
       <c r="C3543" s="7"/>
       <c r="D3543" s="7"/>
       <c r="E3543" s="63"/>
     </row>
     <row r="3544">
-      <c r="B3544" s="7"/>
+      <c r="A3544" s="1" t="s">
+        <v>13113</v>
+      </c>
+      <c r="B3544" s="2" t="s">
+        <v>13113</v>
+      </c>
       <c r="C3544" s="7"/>
       <c r="D3544" s="7"/>
       <c r="E3544" s="63"/>
     </row>
     <row r="3545">
-      <c r="B3545" s="7"/>
+      <c r="A3545" s="1" t="s">
+        <v>13114</v>
+      </c>
+      <c r="B3545" s="2" t="s">
+        <v>13114</v>
+      </c>
       <c r="C3545" s="7"/>
       <c r="D3545" s="7"/>
       <c r="E3545" s="63"/>
@@ -102040,7 +102716,229 @@
       <c r="D4269" s="7"/>
       <c r="E4269" s="63"/>
     </row>
+    <row r="4270">
+      <c r="B4270" s="7"/>
+      <c r="C4270" s="7"/>
+      <c r="D4270" s="7"/>
+      <c r="E4270" s="63"/>
+    </row>
+    <row r="4271">
+      <c r="B4271" s="7"/>
+      <c r="C4271" s="7"/>
+      <c r="D4271" s="7"/>
+      <c r="E4271" s="63"/>
+    </row>
+    <row r="4272">
+      <c r="B4272" s="7"/>
+      <c r="C4272" s="7"/>
+      <c r="D4272" s="7"/>
+      <c r="E4272" s="63"/>
+    </row>
+    <row r="4273">
+      <c r="B4273" s="7"/>
+      <c r="C4273" s="7"/>
+      <c r="D4273" s="7"/>
+      <c r="E4273" s="63"/>
+    </row>
+    <row r="4274">
+      <c r="B4274" s="7"/>
+      <c r="C4274" s="7"/>
+      <c r="D4274" s="7"/>
+      <c r="E4274" s="63"/>
+    </row>
+    <row r="4275">
+      <c r="B4275" s="7"/>
+      <c r="C4275" s="7"/>
+      <c r="D4275" s="7"/>
+      <c r="E4275" s="63"/>
+    </row>
+    <row r="4276">
+      <c r="B4276" s="7"/>
+      <c r="C4276" s="7"/>
+      <c r="D4276" s="7"/>
+      <c r="E4276" s="63"/>
+    </row>
+    <row r="4277">
+      <c r="B4277" s="7"/>
+      <c r="C4277" s="7"/>
+      <c r="D4277" s="7"/>
+      <c r="E4277" s="63"/>
+    </row>
+    <row r="4278">
+      <c r="B4278" s="7"/>
+      <c r="C4278" s="7"/>
+      <c r="D4278" s="7"/>
+      <c r="E4278" s="63"/>
+    </row>
+    <row r="4279">
+      <c r="B4279" s="7"/>
+      <c r="C4279" s="7"/>
+      <c r="D4279" s="7"/>
+      <c r="E4279" s="63"/>
+    </row>
+    <row r="4280">
+      <c r="B4280" s="7"/>
+      <c r="C4280" s="7"/>
+      <c r="D4280" s="7"/>
+      <c r="E4280" s="63"/>
+    </row>
+    <row r="4281">
+      <c r="B4281" s="7"/>
+      <c r="C4281" s="7"/>
+      <c r="D4281" s="7"/>
+      <c r="E4281" s="63"/>
+    </row>
+    <row r="4282">
+      <c r="B4282" s="7"/>
+      <c r="C4282" s="7"/>
+      <c r="D4282" s="7"/>
+      <c r="E4282" s="63"/>
+    </row>
+    <row r="4283">
+      <c r="B4283" s="7"/>
+      <c r="C4283" s="7"/>
+      <c r="D4283" s="7"/>
+      <c r="E4283" s="63"/>
+    </row>
+    <row r="4284">
+      <c r="B4284" s="7"/>
+      <c r="C4284" s="7"/>
+      <c r="D4284" s="7"/>
+      <c r="E4284" s="63"/>
+    </row>
+    <row r="4285">
+      <c r="B4285" s="7"/>
+      <c r="C4285" s="7"/>
+      <c r="D4285" s="7"/>
+      <c r="E4285" s="63"/>
+    </row>
+    <row r="4286">
+      <c r="B4286" s="7"/>
+      <c r="C4286" s="7"/>
+      <c r="D4286" s="7"/>
+      <c r="E4286" s="63"/>
+    </row>
+    <row r="4287">
+      <c r="B4287" s="7"/>
+      <c r="C4287" s="7"/>
+      <c r="D4287" s="7"/>
+      <c r="E4287" s="63"/>
+    </row>
+    <row r="4288">
+      <c r="B4288" s="7"/>
+      <c r="C4288" s="7"/>
+      <c r="D4288" s="7"/>
+      <c r="E4288" s="63"/>
+    </row>
+    <row r="4289">
+      <c r="B4289" s="7"/>
+      <c r="C4289" s="7"/>
+      <c r="D4289" s="7"/>
+      <c r="E4289" s="63"/>
+    </row>
+    <row r="4290">
+      <c r="B4290" s="7"/>
+      <c r="C4290" s="7"/>
+      <c r="D4290" s="7"/>
+      <c r="E4290" s="63"/>
+    </row>
+    <row r="4291">
+      <c r="B4291" s="7"/>
+      <c r="C4291" s="7"/>
+      <c r="D4291" s="7"/>
+      <c r="E4291" s="63"/>
+    </row>
+    <row r="4292">
+      <c r="B4292" s="7"/>
+      <c r="C4292" s="7"/>
+      <c r="D4292" s="7"/>
+      <c r="E4292" s="63"/>
+    </row>
+    <row r="4293">
+      <c r="B4293" s="7"/>
+      <c r="C4293" s="7"/>
+      <c r="D4293" s="7"/>
+      <c r="E4293" s="63"/>
+    </row>
+    <row r="4294">
+      <c r="B4294" s="7"/>
+      <c r="C4294" s="7"/>
+      <c r="D4294" s="7"/>
+      <c r="E4294" s="63"/>
+    </row>
+    <row r="4295">
+      <c r="B4295" s="7"/>
+      <c r="C4295" s="7"/>
+      <c r="D4295" s="7"/>
+      <c r="E4295" s="63"/>
+    </row>
+    <row r="4296">
+      <c r="B4296" s="7"/>
+      <c r="C4296" s="7"/>
+      <c r="D4296" s="7"/>
+      <c r="E4296" s="63"/>
+    </row>
+    <row r="4297">
+      <c r="B4297" s="7"/>
+      <c r="C4297" s="7"/>
+      <c r="D4297" s="7"/>
+      <c r="E4297" s="63"/>
+    </row>
+    <row r="4298">
+      <c r="B4298" s="7"/>
+      <c r="C4298" s="7"/>
+      <c r="D4298" s="7"/>
+      <c r="E4298" s="63"/>
+    </row>
+    <row r="4299">
+      <c r="B4299" s="7"/>
+      <c r="C4299" s="7"/>
+      <c r="D4299" s="7"/>
+      <c r="E4299" s="63"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>